--- a/data/covid19miyagi/latest.xlsx
+++ b/data/covid19miyagi/latest.xlsx
@@ -17,12 +17,15 @@
     <sheet name="日別集計（HP掲載）" sheetId="3" r:id="rId3"/>
     <sheet name="その他集計（HP掲載）" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'その他集計（HP掲載）'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'日別集計（HP掲載）'!$D$1:$P$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$D$1:$CE$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$D$1:$CF$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'患者状況一覧（HP掲載）'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -715,6 +718,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -737,6 +743,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
@@ -780,11 +789,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -815,30 +842,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,7 +1021,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1039,10 +1041,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'累計グラフ（HP掲載）'!$E$2:$CE$2</c:f>
+              <c:f>'累計グラフ（HP掲載）'!$E$2:$CF$2</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43890</c:v>
                 </c:pt>
@@ -1279,16 +1281,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'累計グラフ（HP掲載）'!$E$3:$CE$3</c:f>
+              <c:f>'累計グラフ（HP掲載）'!$E$3:$CF$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1524,6 +1529,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1531,7 +1539,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1739-48EB-8C15-E7DC67C88F8D}"/>
+              <c16:uniqueId val="{00000000-EE5F-4D75-8F65-40FC8B9A2803}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1616,7 +1624,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1637,10 +1644,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'累計グラフ（HP掲載）'!$E$2:$CE$2</c:f>
+              <c:f>'累計グラフ（HP掲載）'!$E$2:$CF$2</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43890</c:v>
                 </c:pt>
@@ -1877,16 +1884,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'累計グラフ（HP掲載）'!$E$4:$CE$4</c:f>
+              <c:f>'累計グラフ（HP掲載）'!$E$4:$CF$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2122,6 +2132,9 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
@@ -2130,7 +2143,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1739-48EB-8C15-E7DC67C88F8D}"/>
+              <c16:uniqueId val="{00000001-EE5F-4D75-8F65-40FC8B9A2803}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2469,10 +2482,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'日別集計（HP掲載）'!$A$2:$A$122</c:f>
+              <c:f>'日別集計（HP掲載）'!$A$2:$A$123</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>43845</c:v>
                 </c:pt>
@@ -2835,16 +2848,19 @@
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'日別集計（HP掲載）'!$B$2:$B$122</c:f>
+              <c:f>'日別集計（HP掲載）'!$B$2:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3206,6 +3222,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3213,7 +3232,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F80A-4398-83B5-1905DF6F8B51}"/>
+              <c16:uniqueId val="{00000000-1B17-40CA-A7D9-030605B31EB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3446,7 +3465,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-28EF-477E-AE35-E9416E3A6C26}"/>
+                <c16:uniqueId val="{00000001-38EC-454C-9523-814D1EFF605B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3492,7 +3511,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-28EF-477E-AE35-E9416E3A6C26}"/>
+                <c16:uniqueId val="{00000003-38EC-454C-9523-814D1EFF605B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3538,7 +3557,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-28EF-477E-AE35-E9416E3A6C26}"/>
+                <c16:uniqueId val="{00000005-38EC-454C-9523-814D1EFF605B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3584,7 +3603,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-28EF-477E-AE35-E9416E3A6C26}"/>
+                <c16:uniqueId val="{00000007-38EC-454C-9523-814D1EFF605B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3630,7 +3649,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-28EF-477E-AE35-E9416E3A6C26}"/>
+                <c16:uniqueId val="{00000009-38EC-454C-9523-814D1EFF605B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3676,7 +3695,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-28EF-477E-AE35-E9416E3A6C26}"/>
+                <c16:uniqueId val="{0000000B-38EC-454C-9523-814D1EFF605B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3685,8 +3704,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.3781956359932621E-2"/>
-                  <c:y val="1.2286343390721199E-3"/>
+                  <c:x val="8.5722254867395237E-2"/>
+                  <c:y val="1.5972246407937558E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -3701,7 +3720,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-28EF-477E-AE35-E9416E3A6C26}"/>
+                  <c16:uniqueId val="{00000001-38EC-454C-9523-814D1EFF605B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3710,7 +3729,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.27522638774630781"/>
-                  <c:y val="0.4275647499970977"/>
+                  <c:y val="0.19658149425153917"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -3732,7 +3751,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-28EF-477E-AE35-E9416E3A6C26}"/>
+                  <c16:uniqueId val="{00000003-38EC-454C-9523-814D1EFF605B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3740,8 +3759,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.26309554589258416"/>
-                  <c:y val="0.19166695689525068"/>
+                  <c:x val="0.26508559564382811"/>
+                  <c:y val="0.47179558620369405"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -3786,13 +3805,13 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.25782990559015945"/>
+                      <c:w val="0.25384980608767188"/>
                       <c:h val="0.25380102702221602"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-28EF-477E-AE35-E9416E3A6C26}"/>
+                  <c16:uniqueId val="{00000005-38EC-454C-9523-814D1EFF605B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3800,7 +3819,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.25969679163238923"/>
+                  <c:x val="0.26765699063736437"/>
                   <c:y val="0.72735152873069486"/>
                 </c:manualLayout>
               </c:layout>
@@ -3852,7 +3871,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-28EF-477E-AE35-E9416E3A6C26}"/>
+                  <c16:uniqueId val="{00000007-38EC-454C-9523-814D1EFF605B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3860,8 +3879,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12548125514161479"/>
-                  <c:y val="-0.18675241953896221"/>
+                  <c:x val="-6.1799663101813805E-2"/>
+                  <c:y val="-9.8290747125769587E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -3906,13 +3925,13 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.40199004975124381"/>
+                      <c:w val="0.32238805970149254"/>
                       <c:h val="0.40984803631340044"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-28EF-477E-AE35-E9416E3A6C26}"/>
+                  <c16:uniqueId val="{00000009-38EC-454C-9523-814D1EFF605B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3920,7 +3939,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.8769851529752804E-2"/>
+                  <c:x val="-7.274995103224037E-2"/>
                   <c:y val="1.3824167914649578E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -3936,7 +3955,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-28EF-477E-AE35-E9416E3A6C26}"/>
+                  <c16:uniqueId val="{0000000B-38EC-454C-9523-814D1EFF605B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4051,7 +4070,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-28EF-477E-AE35-E9416E3A6C26}"/>
+              <c16:uniqueId val="{0000000C-38EC-454C-9523-814D1EFF605B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5763,8 +5782,8 @@
       <xdr:rowOff>2052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>192741</xdr:rowOff>
     </xdr:to>
@@ -5775,8 +5794,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="971922" y="2655445"/>
-          <a:ext cx="16543673" cy="7035082"/>
+          <a:off x="971922" y="2688102"/>
+          <a:ext cx="16672860" cy="7153464"/>
           <a:chOff x="971922" y="2686370"/>
           <a:chExt cx="14906813" cy="6477189"/>
         </a:xfrm>
@@ -6625,6 +6644,1786 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="患者状況一覧（HP掲載）"/>
+      <sheetName val="累計グラフ（HP掲載）"/>
+      <sheetName val="日別集計（HP掲載）"/>
+      <sheetName val="その他集計（HP掲載）"/>
+      <sheetName val="その他集計（本部手持ち）"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2">
+            <v>43890</v>
+          </cell>
+          <cell r="F2">
+            <v>43891</v>
+          </cell>
+          <cell r="G2">
+            <v>43892</v>
+          </cell>
+          <cell r="H2">
+            <v>43893</v>
+          </cell>
+          <cell r="I2">
+            <v>43894</v>
+          </cell>
+          <cell r="J2">
+            <v>43895</v>
+          </cell>
+          <cell r="K2">
+            <v>43896</v>
+          </cell>
+          <cell r="L2">
+            <v>43897</v>
+          </cell>
+          <cell r="M2">
+            <v>43898</v>
+          </cell>
+          <cell r="N2">
+            <v>43899</v>
+          </cell>
+          <cell r="O2">
+            <v>43900</v>
+          </cell>
+          <cell r="P2">
+            <v>43901</v>
+          </cell>
+          <cell r="Q2">
+            <v>43902</v>
+          </cell>
+          <cell r="R2">
+            <v>43903</v>
+          </cell>
+          <cell r="S2">
+            <v>43904</v>
+          </cell>
+          <cell r="T2">
+            <v>43905</v>
+          </cell>
+          <cell r="U2">
+            <v>43906</v>
+          </cell>
+          <cell r="V2">
+            <v>43907</v>
+          </cell>
+          <cell r="W2">
+            <v>43908</v>
+          </cell>
+          <cell r="X2">
+            <v>43909</v>
+          </cell>
+          <cell r="Y2">
+            <v>43910</v>
+          </cell>
+          <cell r="Z2">
+            <v>43911</v>
+          </cell>
+          <cell r="AA2">
+            <v>43912</v>
+          </cell>
+          <cell r="AB2">
+            <v>43913</v>
+          </cell>
+          <cell r="AC2">
+            <v>43914</v>
+          </cell>
+          <cell r="AD2">
+            <v>43915</v>
+          </cell>
+          <cell r="AE2">
+            <v>43916</v>
+          </cell>
+          <cell r="AF2">
+            <v>43917</v>
+          </cell>
+          <cell r="AG2">
+            <v>43918</v>
+          </cell>
+          <cell r="AH2">
+            <v>43919</v>
+          </cell>
+          <cell r="AI2">
+            <v>43920</v>
+          </cell>
+          <cell r="AJ2">
+            <v>43921</v>
+          </cell>
+          <cell r="AK2">
+            <v>43922</v>
+          </cell>
+          <cell r="AL2">
+            <v>43923</v>
+          </cell>
+          <cell r="AM2">
+            <v>43924</v>
+          </cell>
+          <cell r="AN2">
+            <v>43925</v>
+          </cell>
+          <cell r="AO2">
+            <v>43926</v>
+          </cell>
+          <cell r="AP2">
+            <v>43927</v>
+          </cell>
+          <cell r="AQ2">
+            <v>43928</v>
+          </cell>
+          <cell r="AR2">
+            <v>43929</v>
+          </cell>
+          <cell r="AS2">
+            <v>43930</v>
+          </cell>
+          <cell r="AT2">
+            <v>43931</v>
+          </cell>
+          <cell r="AU2">
+            <v>43932</v>
+          </cell>
+          <cell r="AV2">
+            <v>43933</v>
+          </cell>
+          <cell r="AW2">
+            <v>43934</v>
+          </cell>
+          <cell r="AX2">
+            <v>43935</v>
+          </cell>
+          <cell r="AY2">
+            <v>43936</v>
+          </cell>
+          <cell r="AZ2">
+            <v>43937</v>
+          </cell>
+          <cell r="BA2">
+            <v>43938</v>
+          </cell>
+          <cell r="BB2">
+            <v>43939</v>
+          </cell>
+          <cell r="BC2">
+            <v>43940</v>
+          </cell>
+          <cell r="BD2">
+            <v>43941</v>
+          </cell>
+          <cell r="BE2">
+            <v>43942</v>
+          </cell>
+          <cell r="BF2">
+            <v>43943</v>
+          </cell>
+          <cell r="BG2">
+            <v>43944</v>
+          </cell>
+          <cell r="BH2">
+            <v>43945</v>
+          </cell>
+          <cell r="BI2">
+            <v>43946</v>
+          </cell>
+          <cell r="BJ2">
+            <v>43947</v>
+          </cell>
+          <cell r="BK2">
+            <v>43948</v>
+          </cell>
+          <cell r="BL2">
+            <v>43949</v>
+          </cell>
+          <cell r="BM2">
+            <v>43950</v>
+          </cell>
+          <cell r="BN2">
+            <v>43951</v>
+          </cell>
+          <cell r="BO2">
+            <v>43952</v>
+          </cell>
+          <cell r="BP2">
+            <v>43953</v>
+          </cell>
+          <cell r="BQ2">
+            <v>43954</v>
+          </cell>
+          <cell r="BR2">
+            <v>43955</v>
+          </cell>
+          <cell r="BS2">
+            <v>43956</v>
+          </cell>
+          <cell r="BT2">
+            <v>43957</v>
+          </cell>
+          <cell r="BU2">
+            <v>43958</v>
+          </cell>
+          <cell r="BV2">
+            <v>43959</v>
+          </cell>
+          <cell r="BW2">
+            <v>43960</v>
+          </cell>
+          <cell r="BX2">
+            <v>43961</v>
+          </cell>
+          <cell r="BY2">
+            <v>43962</v>
+          </cell>
+          <cell r="BZ2">
+            <v>43963</v>
+          </cell>
+          <cell r="CA2">
+            <v>43964</v>
+          </cell>
+          <cell r="CB2">
+            <v>43965</v>
+          </cell>
+          <cell r="CC2">
+            <v>43966</v>
+          </cell>
+          <cell r="CD2">
+            <v>43967</v>
+          </cell>
+          <cell r="CE2">
+            <v>43968</v>
+          </cell>
+          <cell r="CF2">
+            <v>43969</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>療養者数</v>
+          </cell>
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+          <cell r="G3">
+            <v>1</v>
+          </cell>
+          <cell r="H3">
+            <v>1</v>
+          </cell>
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+          <cell r="J3">
+            <v>1</v>
+          </cell>
+          <cell r="K3">
+            <v>1</v>
+          </cell>
+          <cell r="L3">
+            <v>1</v>
+          </cell>
+          <cell r="M3">
+            <v>1</v>
+          </cell>
+          <cell r="N3">
+            <v>1</v>
+          </cell>
+          <cell r="O3">
+            <v>0</v>
+          </cell>
+          <cell r="P3">
+            <v>0</v>
+          </cell>
+          <cell r="Q3">
+            <v>0</v>
+          </cell>
+          <cell r="R3">
+            <v>0</v>
+          </cell>
+          <cell r="S3">
+            <v>0</v>
+          </cell>
+          <cell r="T3">
+            <v>0</v>
+          </cell>
+          <cell r="U3">
+            <v>0</v>
+          </cell>
+          <cell r="V3">
+            <v>0</v>
+          </cell>
+          <cell r="W3">
+            <v>0</v>
+          </cell>
+          <cell r="X3">
+            <v>0</v>
+          </cell>
+          <cell r="Y3">
+            <v>0</v>
+          </cell>
+          <cell r="Z3">
+            <v>0</v>
+          </cell>
+          <cell r="AA3">
+            <v>0</v>
+          </cell>
+          <cell r="AB3">
+            <v>0</v>
+          </cell>
+          <cell r="AC3">
+            <v>0</v>
+          </cell>
+          <cell r="AD3">
+            <v>0</v>
+          </cell>
+          <cell r="AE3">
+            <v>1</v>
+          </cell>
+          <cell r="AF3">
+            <v>1</v>
+          </cell>
+          <cell r="AG3">
+            <v>1</v>
+          </cell>
+          <cell r="AH3">
+            <v>3</v>
+          </cell>
+          <cell r="AI3">
+            <v>5</v>
+          </cell>
+          <cell r="AJ3">
+            <v>6</v>
+          </cell>
+          <cell r="AK3">
+            <v>10</v>
+          </cell>
+          <cell r="AL3">
+            <v>11</v>
+          </cell>
+          <cell r="AM3">
+            <v>17</v>
+          </cell>
+          <cell r="AN3">
+            <v>19</v>
+          </cell>
+          <cell r="AO3">
+            <v>22</v>
+          </cell>
+          <cell r="AP3">
+            <v>25</v>
+          </cell>
+          <cell r="AQ3">
+            <v>31</v>
+          </cell>
+          <cell r="AR3">
+            <v>33</v>
+          </cell>
+          <cell r="AS3">
+            <v>35</v>
+          </cell>
+          <cell r="AT3">
+            <v>36</v>
+          </cell>
+          <cell r="AU3">
+            <v>42</v>
+          </cell>
+          <cell r="AV3">
+            <v>46</v>
+          </cell>
+          <cell r="AW3">
+            <v>49</v>
+          </cell>
+          <cell r="AX3">
+            <v>58</v>
+          </cell>
+          <cell r="AY3">
+            <v>54</v>
+          </cell>
+          <cell r="AZ3">
+            <v>66</v>
+          </cell>
+          <cell r="BA3">
+            <v>66</v>
+          </cell>
+          <cell r="BB3">
+            <v>70</v>
+          </cell>
+          <cell r="BC3">
+            <v>69</v>
+          </cell>
+          <cell r="BD3">
+            <v>69</v>
+          </cell>
+          <cell r="BE3">
+            <v>67</v>
+          </cell>
+          <cell r="BF3">
+            <v>57</v>
+          </cell>
+          <cell r="BG3">
+            <v>49</v>
+          </cell>
+          <cell r="BH3">
+            <v>46</v>
+          </cell>
+          <cell r="BI3">
+            <v>44</v>
+          </cell>
+          <cell r="BJ3">
+            <v>44</v>
+          </cell>
+          <cell r="BK3">
+            <v>43</v>
+          </cell>
+          <cell r="BL3">
+            <v>39</v>
+          </cell>
+          <cell r="BM3">
+            <v>38</v>
+          </cell>
+          <cell r="BN3">
+            <v>36</v>
+          </cell>
+          <cell r="BO3">
+            <v>25</v>
+          </cell>
+          <cell r="BP3">
+            <v>17</v>
+          </cell>
+          <cell r="BQ3">
+            <v>15</v>
+          </cell>
+          <cell r="BR3">
+            <v>15</v>
+          </cell>
+          <cell r="BS3">
+            <v>13</v>
+          </cell>
+          <cell r="BT3">
+            <v>13</v>
+          </cell>
+          <cell r="BU3">
+            <v>13</v>
+          </cell>
+          <cell r="BV3">
+            <v>9</v>
+          </cell>
+          <cell r="BW3">
+            <v>7</v>
+          </cell>
+          <cell r="BX3">
+            <v>7</v>
+          </cell>
+          <cell r="BY3">
+            <v>7</v>
+          </cell>
+          <cell r="BZ3">
+            <v>6</v>
+          </cell>
+          <cell r="CA3">
+            <v>5</v>
+          </cell>
+          <cell r="CB3">
+            <v>5</v>
+          </cell>
+          <cell r="CC3">
+            <v>3</v>
+          </cell>
+          <cell r="CD3">
+            <v>2</v>
+          </cell>
+          <cell r="CE3">
+            <v>2</v>
+          </cell>
+          <cell r="CF3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>罹患者累計数</v>
+          </cell>
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+          <cell r="H4">
+            <v>1</v>
+          </cell>
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+          <cell r="J4">
+            <v>1</v>
+          </cell>
+          <cell r="K4">
+            <v>1</v>
+          </cell>
+          <cell r="L4">
+            <v>1</v>
+          </cell>
+          <cell r="M4">
+            <v>1</v>
+          </cell>
+          <cell r="N4">
+            <v>1</v>
+          </cell>
+          <cell r="O4">
+            <v>1</v>
+          </cell>
+          <cell r="P4">
+            <v>1</v>
+          </cell>
+          <cell r="Q4">
+            <v>1</v>
+          </cell>
+          <cell r="R4">
+            <v>1</v>
+          </cell>
+          <cell r="S4">
+            <v>1</v>
+          </cell>
+          <cell r="T4">
+            <v>1</v>
+          </cell>
+          <cell r="U4">
+            <v>1</v>
+          </cell>
+          <cell r="V4">
+            <v>1</v>
+          </cell>
+          <cell r="W4">
+            <v>1</v>
+          </cell>
+          <cell r="X4">
+            <v>1</v>
+          </cell>
+          <cell r="Y4">
+            <v>1</v>
+          </cell>
+          <cell r="Z4">
+            <v>1</v>
+          </cell>
+          <cell r="AA4">
+            <v>1</v>
+          </cell>
+          <cell r="AB4">
+            <v>1</v>
+          </cell>
+          <cell r="AC4">
+            <v>1</v>
+          </cell>
+          <cell r="AD4">
+            <v>1</v>
+          </cell>
+          <cell r="AE4">
+            <v>2</v>
+          </cell>
+          <cell r="AF4">
+            <v>2</v>
+          </cell>
+          <cell r="AG4">
+            <v>2</v>
+          </cell>
+          <cell r="AH4">
+            <v>4</v>
+          </cell>
+          <cell r="AI4">
+            <v>6</v>
+          </cell>
+          <cell r="AJ4">
+            <v>7</v>
+          </cell>
+          <cell r="AK4">
+            <v>11</v>
+          </cell>
+          <cell r="AL4">
+            <v>12</v>
+          </cell>
+          <cell r="AM4">
+            <v>18</v>
+          </cell>
+          <cell r="AN4">
+            <v>20</v>
+          </cell>
+          <cell r="AO4">
+            <v>23</v>
+          </cell>
+          <cell r="AP4">
+            <v>26</v>
+          </cell>
+          <cell r="AQ4">
+            <v>32</v>
+          </cell>
+          <cell r="AR4">
+            <v>34</v>
+          </cell>
+          <cell r="AS4">
+            <v>36</v>
+          </cell>
+          <cell r="AT4">
+            <v>38</v>
+          </cell>
+          <cell r="AU4">
+            <v>45</v>
+          </cell>
+          <cell r="AV4">
+            <v>51</v>
+          </cell>
+          <cell r="AW4">
+            <v>54</v>
+          </cell>
+          <cell r="AX4">
+            <v>64</v>
+          </cell>
+          <cell r="AY4">
+            <v>65</v>
+          </cell>
+          <cell r="AZ4">
+            <v>78</v>
+          </cell>
+          <cell r="BA4">
+            <v>79</v>
+          </cell>
+          <cell r="BB4">
+            <v>83</v>
+          </cell>
+          <cell r="BC4">
+            <v>83</v>
+          </cell>
+          <cell r="BD4">
+            <v>84</v>
+          </cell>
+          <cell r="BE4">
+            <v>84</v>
+          </cell>
+          <cell r="BF4">
+            <v>84</v>
+          </cell>
+          <cell r="BG4">
+            <v>84</v>
+          </cell>
+          <cell r="BH4">
+            <v>84</v>
+          </cell>
+          <cell r="BI4">
+            <v>85</v>
+          </cell>
+          <cell r="BJ4">
+            <v>85</v>
+          </cell>
+          <cell r="BK4">
+            <v>86</v>
+          </cell>
+          <cell r="BL4">
+            <v>88</v>
+          </cell>
+          <cell r="BM4">
+            <v>88</v>
+          </cell>
+          <cell r="BN4">
+            <v>88</v>
+          </cell>
+          <cell r="BO4">
+            <v>88</v>
+          </cell>
+          <cell r="BP4">
+            <v>88</v>
+          </cell>
+          <cell r="BQ4">
+            <v>88</v>
+          </cell>
+          <cell r="BR4">
+            <v>88</v>
+          </cell>
+          <cell r="BS4">
+            <v>88</v>
+          </cell>
+          <cell r="BT4">
+            <v>88</v>
+          </cell>
+          <cell r="BU4">
+            <v>88</v>
+          </cell>
+          <cell r="BV4">
+            <v>88</v>
+          </cell>
+          <cell r="BW4">
+            <v>88</v>
+          </cell>
+          <cell r="BX4">
+            <v>88</v>
+          </cell>
+          <cell r="BY4">
+            <v>88</v>
+          </cell>
+          <cell r="BZ4">
+            <v>88</v>
+          </cell>
+          <cell r="CA4">
+            <v>88</v>
+          </cell>
+          <cell r="CB4">
+            <v>88</v>
+          </cell>
+          <cell r="CC4">
+            <v>88</v>
+          </cell>
+          <cell r="CD4">
+            <v>88</v>
+          </cell>
+          <cell r="CE4">
+            <v>88</v>
+          </cell>
+          <cell r="CF4">
+            <v>88</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2">
+            <v>43845</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>43846</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>43847</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>43848</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>43849</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>43850</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>43851</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>43852</v>
+          </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>43853</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>43854</v>
+          </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>43855</v>
+          </cell>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>43856</v>
+          </cell>
+          <cell r="B13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>43857</v>
+          </cell>
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>43858</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>43859</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>43860</v>
+          </cell>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>43861</v>
+          </cell>
+          <cell r="B18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>43862</v>
+          </cell>
+          <cell r="B19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>43863</v>
+          </cell>
+          <cell r="B20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>43864</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>43865</v>
+          </cell>
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>43866</v>
+          </cell>
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>43867</v>
+          </cell>
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>43868</v>
+          </cell>
+          <cell r="B25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>43872</v>
+          </cell>
+          <cell r="B26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>43873</v>
+          </cell>
+          <cell r="B27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>43874</v>
+          </cell>
+          <cell r="B28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>43875</v>
+          </cell>
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>43876</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>43877</v>
+          </cell>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43878</v>
+          </cell>
+          <cell r="B32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>43879</v>
+          </cell>
+          <cell r="B33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>43880</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43881</v>
+          </cell>
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>43882</v>
+          </cell>
+          <cell r="B36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>43883</v>
+          </cell>
+          <cell r="B37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>43884</v>
+          </cell>
+          <cell r="B38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>43885</v>
+          </cell>
+          <cell r="B39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>43886</v>
+          </cell>
+          <cell r="B40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>43887</v>
+          </cell>
+          <cell r="B41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>43888</v>
+          </cell>
+          <cell r="B42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>43889</v>
+          </cell>
+          <cell r="B43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43890</v>
+          </cell>
+          <cell r="B44">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>43891</v>
+          </cell>
+          <cell r="B45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>43892</v>
+          </cell>
+          <cell r="B46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>43893</v>
+          </cell>
+          <cell r="B47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>43894</v>
+          </cell>
+          <cell r="B48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>43895</v>
+          </cell>
+          <cell r="B49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>43896</v>
+          </cell>
+          <cell r="B50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>43897</v>
+          </cell>
+          <cell r="B51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>43898</v>
+          </cell>
+          <cell r="B52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>43899</v>
+          </cell>
+          <cell r="B53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>43900</v>
+          </cell>
+          <cell r="B54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>43901</v>
+          </cell>
+          <cell r="B55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>43902</v>
+          </cell>
+          <cell r="B56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>43903</v>
+          </cell>
+          <cell r="B57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>43904</v>
+          </cell>
+          <cell r="B58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>43905</v>
+          </cell>
+          <cell r="B59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>43906</v>
+          </cell>
+          <cell r="B60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>43907</v>
+          </cell>
+          <cell r="B61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>43908</v>
+          </cell>
+          <cell r="B62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>43909</v>
+          </cell>
+          <cell r="B63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>43910</v>
+          </cell>
+          <cell r="B64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>43911</v>
+          </cell>
+          <cell r="B65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>43912</v>
+          </cell>
+          <cell r="B66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>43913</v>
+          </cell>
+          <cell r="B67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>43914</v>
+          </cell>
+          <cell r="B68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>43915</v>
+          </cell>
+          <cell r="B69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>43916</v>
+          </cell>
+          <cell r="B70">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>43917</v>
+          </cell>
+          <cell r="B71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>43918</v>
+          </cell>
+          <cell r="B72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>43919</v>
+          </cell>
+          <cell r="B73">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>43920</v>
+          </cell>
+          <cell r="B74">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>43921</v>
+          </cell>
+          <cell r="B75">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>43922</v>
+          </cell>
+          <cell r="B76">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>43923</v>
+          </cell>
+          <cell r="B77">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>43924</v>
+          </cell>
+          <cell r="B78">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>43925</v>
+          </cell>
+          <cell r="B79">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>43926</v>
+          </cell>
+          <cell r="B80">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>43927</v>
+          </cell>
+          <cell r="B81">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>43928</v>
+          </cell>
+          <cell r="B82">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>43929</v>
+          </cell>
+          <cell r="B83">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>43930</v>
+          </cell>
+          <cell r="B84">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>43931</v>
+          </cell>
+          <cell r="B85">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>43932</v>
+          </cell>
+          <cell r="B86">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>43933</v>
+          </cell>
+          <cell r="B87">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>43934</v>
+          </cell>
+          <cell r="B88">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>43935</v>
+          </cell>
+          <cell r="B89">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>43936</v>
+          </cell>
+          <cell r="B90">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>43937</v>
+          </cell>
+          <cell r="B91">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>43938</v>
+          </cell>
+          <cell r="B92">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>43939</v>
+          </cell>
+          <cell r="B93">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>43940</v>
+          </cell>
+          <cell r="B94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>43941</v>
+          </cell>
+          <cell r="B95">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>43942</v>
+          </cell>
+          <cell r="B96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>43943</v>
+          </cell>
+          <cell r="B97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>43944</v>
+          </cell>
+          <cell r="B98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>43945</v>
+          </cell>
+          <cell r="B99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>43946</v>
+          </cell>
+          <cell r="B100">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>43947</v>
+          </cell>
+          <cell r="B101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>43948</v>
+          </cell>
+          <cell r="B102">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>43949</v>
+          </cell>
+          <cell r="B103">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>43950</v>
+          </cell>
+          <cell r="B104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>43951</v>
+          </cell>
+          <cell r="B105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>43952</v>
+          </cell>
+          <cell r="B106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>43953</v>
+          </cell>
+          <cell r="B107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>43954</v>
+          </cell>
+          <cell r="B108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>43955</v>
+          </cell>
+          <cell r="B109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>43956</v>
+          </cell>
+          <cell r="B110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>43957</v>
+          </cell>
+          <cell r="B111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>43958</v>
+          </cell>
+          <cell r="B112">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>43959</v>
+          </cell>
+          <cell r="B113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>43960</v>
+          </cell>
+          <cell r="B114">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>43961</v>
+          </cell>
+          <cell r="B115">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>43962</v>
+          </cell>
+          <cell r="B116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>43963</v>
+          </cell>
+          <cell r="B117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>43964</v>
+          </cell>
+          <cell r="B118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>43965</v>
+          </cell>
+          <cell r="B119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>43966</v>
+          </cell>
+          <cell r="B120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>43967</v>
+          </cell>
+          <cell r="B121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>43968</v>
+          </cell>
+          <cell r="B122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>43969</v>
+          </cell>
+          <cell r="B123">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>入院中</v>
+          </cell>
+          <cell r="D7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>入院調整中</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>宿泊療養中</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>自宅療養中</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>退院・療養解除</v>
+          </cell>
+          <cell r="D11">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>死亡</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6895,1812 +8694,1812 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="18.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>43969</v>
+      <c r="F2" s="5">
+        <v>43970</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>43890</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="10">
         <v>43916</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="10">
         <v>43919</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>43919</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>43920</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>43920</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>43921</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>43922</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>43922</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>43922</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>43922</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <v>43923</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="10">
         <v>43924</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="10">
         <v>43924</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>43924</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>43924</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <v>43924</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <v>43924</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="10">
         <v>43925</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="10">
         <v>43925</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="10">
         <v>43926</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="10">
         <v>43926</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="10">
         <v>43926</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="10">
         <v>43927</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="10">
         <v>43927</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="10">
         <v>43927</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="10">
         <v>43928</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="6">
+      <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="10">
         <v>43928</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="10">
         <v>43928</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="6">
+      <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="10">
         <v>43928</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="10">
         <v>43928</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="10">
         <v>43928</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="6">
+      <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="10">
         <v>43929</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="6">
+      <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="10">
         <v>43929</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="6">
+      <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="10">
         <v>43930</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="10">
         <v>43930</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="6">
+      <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="10">
         <v>43931</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="6">
+      <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="10">
         <v>43931</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="6">
+      <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="10">
         <v>43932</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="6">
+      <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="10">
         <v>43932</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="10">
         <v>43932</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="6">
+      <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="10">
         <v>43932</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
+      <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="10">
         <v>43932</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="6">
+      <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="10">
         <v>43932</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="6">
+      <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <v>43932</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="6">
+      <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="10">
         <v>43933</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="6">
+      <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="10">
         <v>43933</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="6">
+      <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="10">
         <v>43933</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="10">
         <v>43933</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="6">
+      <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="10">
         <v>43933</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="6">
+      <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="10">
         <v>43933</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="6">
+      <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="10">
         <v>43934</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="6">
+      <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="10">
         <v>43934</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="6">
+      <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="10">
         <v>43934</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="6">
+      <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="10">
         <v>43935</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="6">
+      <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="10">
         <v>43935</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="6">
+      <c r="A60" s="7">
         <v>57</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="10">
         <v>43935</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="6">
+      <c r="A61" s="7">
         <v>58</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="10">
         <v>43935</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="6">
+      <c r="A62" s="7">
         <v>59</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="10">
         <v>43935</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="6">
+      <c r="A63" s="7">
         <v>60</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="10">
         <v>43935</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="6">
+      <c r="A64" s="7">
         <v>61</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="10">
         <v>43935</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="6">
+      <c r="A65" s="7">
         <v>62</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="10">
         <v>43935</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="6">
+      <c r="A66" s="7">
         <v>63</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="10">
         <v>43935</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="6">
+      <c r="A67" s="7">
         <v>64</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="10">
         <v>43935</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="6">
+      <c r="A68" s="7">
         <v>65</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="10">
         <v>43936</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="6">
+      <c r="A69" s="7">
         <v>66</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="10">
         <v>43937</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="6">
+      <c r="A70" s="7">
         <v>67</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="10">
         <v>43937</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="6">
+      <c r="A71" s="7">
         <v>68</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="10">
         <v>43937</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="6">
+      <c r="A72" s="7">
         <v>69</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="10">
         <v>43937</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="6">
+      <c r="A73" s="7">
         <v>70</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="10">
         <v>43937</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="6">
+      <c r="A74" s="7">
         <v>71</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="10">
         <v>43937</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="6">
+      <c r="A75" s="7">
         <v>72</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="10">
         <v>43937</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="6">
+      <c r="A76" s="7">
         <v>73</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="10">
         <v>43937</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="6">
+      <c r="A77" s="7">
         <v>74</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="10">
         <v>43937</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="6">
+      <c r="A78" s="7">
         <v>75</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="10">
         <v>43937</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="6">
+      <c r="A79" s="7">
         <v>76</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="10">
         <v>43937</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="6">
+      <c r="A80" s="7">
         <v>77</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="10">
         <v>43937</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="6">
+      <c r="A81" s="7">
         <v>78</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="10">
         <v>43937</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="6">
+      <c r="A82" s="7">
         <v>79</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="10">
         <v>43938</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="6">
+      <c r="A83" s="7">
         <v>80</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="10">
         <v>43939</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="6">
+      <c r="A84" s="7">
         <v>81</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="10">
         <v>43939</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="6">
+      <c r="A85" s="7">
         <v>82</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="10">
         <v>43939</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="6">
+      <c r="A86" s="7">
         <v>83</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="10">
         <v>43939</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="6">
+      <c r="A87" s="7">
         <v>84</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="10">
         <v>43941</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="6">
+      <c r="A88" s="7">
         <v>85</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="10">
         <v>43946</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="6">
+      <c r="A89" s="7">
         <v>86</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="10">
         <v>43948</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="6">
+      <c r="A90" s="7">
         <v>87</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="10">
         <v>43949</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="6">
+      <c r="A91" s="7">
         <v>88</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="10">
         <v>43949</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8727,1798 +10526,1798 @@
   </sheetPr>
   <dimension ref="A1:CS12"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="97" width="2.625" style="15" customWidth="1"/>
-    <col min="98" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="6.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="97" width="2.625" style="17" customWidth="1"/>
+    <col min="98" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="BP1" s="38">
+      <c r="BP1" s="12">
+        <v>43970</v>
+      </c>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+    </row>
+    <row r="2" spans="1:97" s="13" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16">
+        <v>43890</v>
+      </c>
+      <c r="F2" s="16">
+        <v>43891</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43892</v>
+      </c>
+      <c r="H2" s="16">
+        <v>43893</v>
+      </c>
+      <c r="I2" s="16">
+        <v>43894</v>
+      </c>
+      <c r="J2" s="16">
+        <v>43895</v>
+      </c>
+      <c r="K2" s="16">
+        <v>43896</v>
+      </c>
+      <c r="L2" s="16">
+        <v>43897</v>
+      </c>
+      <c r="M2" s="16">
+        <v>43898</v>
+      </c>
+      <c r="N2" s="16">
+        <v>43899</v>
+      </c>
+      <c r="O2" s="16">
+        <v>43900</v>
+      </c>
+      <c r="P2" s="16">
+        <v>43901</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>43902</v>
+      </c>
+      <c r="R2" s="16">
+        <v>43903</v>
+      </c>
+      <c r="S2" s="16">
+        <v>43904</v>
+      </c>
+      <c r="T2" s="16">
+        <v>43905</v>
+      </c>
+      <c r="U2" s="16">
+        <v>43906</v>
+      </c>
+      <c r="V2" s="16">
+        <v>43907</v>
+      </c>
+      <c r="W2" s="16">
+        <v>43908</v>
+      </c>
+      <c r="X2" s="16">
+        <v>43909</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>43910</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>43911</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>43912</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>43913</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>43914</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>43915</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>43916</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>43917</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>43918</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>43919</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>43920</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>43921</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>43922</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>43923</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>43924</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>43925</v>
+      </c>
+      <c r="AO2" s="16">
+        <v>43926</v>
+      </c>
+      <c r="AP2" s="16">
+        <v>43927</v>
+      </c>
+      <c r="AQ2" s="16">
+        <v>43928</v>
+      </c>
+      <c r="AR2" s="16">
+        <v>43929</v>
+      </c>
+      <c r="AS2" s="16">
+        <v>43930</v>
+      </c>
+      <c r="AT2" s="16">
+        <v>43931</v>
+      </c>
+      <c r="AU2" s="16">
+        <v>43932</v>
+      </c>
+      <c r="AV2" s="16">
+        <v>43933</v>
+      </c>
+      <c r="AW2" s="16">
+        <v>43934</v>
+      </c>
+      <c r="AX2" s="16">
+        <v>43935</v>
+      </c>
+      <c r="AY2" s="16">
+        <v>43936</v>
+      </c>
+      <c r="AZ2" s="16">
+        <v>43937</v>
+      </c>
+      <c r="BA2" s="16">
+        <v>43938</v>
+      </c>
+      <c r="BB2" s="16">
+        <v>43939</v>
+      </c>
+      <c r="BC2" s="16">
+        <v>43940</v>
+      </c>
+      <c r="BD2" s="16">
+        <v>43941</v>
+      </c>
+      <c r="BE2" s="16">
+        <v>43942</v>
+      </c>
+      <c r="BF2" s="16">
+        <v>43943</v>
+      </c>
+      <c r="BG2" s="16">
+        <v>43944</v>
+      </c>
+      <c r="BH2" s="16">
+        <v>43945</v>
+      </c>
+      <c r="BI2" s="16">
+        <v>43946</v>
+      </c>
+      <c r="BJ2" s="16">
+        <v>43947</v>
+      </c>
+      <c r="BK2" s="16">
+        <v>43948</v>
+      </c>
+      <c r="BL2" s="16">
+        <v>43949</v>
+      </c>
+      <c r="BM2" s="16">
+        <v>43950</v>
+      </c>
+      <c r="BN2" s="16">
+        <v>43951</v>
+      </c>
+      <c r="BO2" s="16">
+        <v>43952</v>
+      </c>
+      <c r="BP2" s="16">
+        <v>43953</v>
+      </c>
+      <c r="BQ2" s="16">
+        <v>43954</v>
+      </c>
+      <c r="BR2" s="16">
+        <v>43955</v>
+      </c>
+      <c r="BS2" s="16">
+        <v>43956</v>
+      </c>
+      <c r="BT2" s="16">
+        <v>43957</v>
+      </c>
+      <c r="BU2" s="16">
+        <v>43958</v>
+      </c>
+      <c r="BV2" s="16">
+        <v>43959</v>
+      </c>
+      <c r="BW2" s="16">
+        <v>43960</v>
+      </c>
+      <c r="BX2" s="16">
+        <v>43961</v>
+      </c>
+      <c r="BY2" s="16">
+        <v>43962</v>
+      </c>
+      <c r="BZ2" s="16">
+        <v>43963</v>
+      </c>
+      <c r="CA2" s="16">
+        <v>43964</v>
+      </c>
+      <c r="CB2" s="16">
+        <v>43965</v>
+      </c>
+      <c r="CC2" s="16">
+        <v>43966</v>
+      </c>
+      <c r="CD2" s="16">
+        <v>43967</v>
+      </c>
+      <c r="CE2" s="16">
+        <v>43968</v>
+      </c>
+      <c r="CF2" s="16">
         <v>43969</v>
       </c>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
-      <c r="BS1" s="38"/>
-      <c r="BT1" s="38"/>
-      <c r="BU1" s="38"/>
-    </row>
-    <row r="2" spans="1:97" s="11" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14">
-        <v>43890</v>
-      </c>
-      <c r="F2" s="14">
-        <v>43891</v>
-      </c>
-      <c r="G2" s="14">
-        <v>43892</v>
-      </c>
-      <c r="H2" s="14">
-        <v>43893</v>
-      </c>
-      <c r="I2" s="14">
-        <v>43894</v>
-      </c>
-      <c r="J2" s="14">
-        <v>43895</v>
-      </c>
-      <c r="K2" s="14">
-        <v>43896</v>
-      </c>
-      <c r="L2" s="14">
-        <v>43897</v>
-      </c>
-      <c r="M2" s="14">
-        <v>43898</v>
-      </c>
-      <c r="N2" s="14">
-        <v>43899</v>
-      </c>
-      <c r="O2" s="14">
-        <v>43900</v>
-      </c>
-      <c r="P2" s="14">
-        <v>43901</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>43902</v>
-      </c>
-      <c r="R2" s="14">
-        <v>43903</v>
-      </c>
-      <c r="S2" s="14">
-        <v>43904</v>
-      </c>
-      <c r="T2" s="14">
-        <v>43905</v>
-      </c>
-      <c r="U2" s="14">
-        <v>43906</v>
-      </c>
-      <c r="V2" s="14">
-        <v>43907</v>
-      </c>
-      <c r="W2" s="14">
-        <v>43908</v>
-      </c>
-      <c r="X2" s="14">
-        <v>43909</v>
-      </c>
-      <c r="Y2" s="14">
-        <v>43910</v>
-      </c>
-      <c r="Z2" s="14">
-        <v>43911</v>
-      </c>
-      <c r="AA2" s="14">
-        <v>43912</v>
-      </c>
-      <c r="AB2" s="14">
-        <v>43913</v>
-      </c>
-      <c r="AC2" s="14">
-        <v>43914</v>
-      </c>
-      <c r="AD2" s="14">
-        <v>43915</v>
-      </c>
-      <c r="AE2" s="14">
-        <v>43916</v>
-      </c>
-      <c r="AF2" s="14">
-        <v>43917</v>
-      </c>
-      <c r="AG2" s="14">
-        <v>43918</v>
-      </c>
-      <c r="AH2" s="14">
-        <v>43919</v>
-      </c>
-      <c r="AI2" s="14">
-        <v>43920</v>
-      </c>
-      <c r="AJ2" s="14">
-        <v>43921</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>43922</v>
-      </c>
-      <c r="AL2" s="14">
-        <v>43923</v>
-      </c>
-      <c r="AM2" s="14">
-        <v>43924</v>
-      </c>
-      <c r="AN2" s="14">
-        <v>43925</v>
-      </c>
-      <c r="AO2" s="14">
-        <v>43926</v>
-      </c>
-      <c r="AP2" s="14">
-        <v>43927</v>
-      </c>
-      <c r="AQ2" s="14">
-        <v>43928</v>
-      </c>
-      <c r="AR2" s="14">
-        <v>43929</v>
-      </c>
-      <c r="AS2" s="14">
-        <v>43930</v>
-      </c>
-      <c r="AT2" s="14">
-        <v>43931</v>
-      </c>
-      <c r="AU2" s="14">
-        <v>43932</v>
-      </c>
-      <c r="AV2" s="14">
-        <v>43933</v>
-      </c>
-      <c r="AW2" s="14">
-        <v>43934</v>
-      </c>
-      <c r="AX2" s="14">
-        <v>43935</v>
-      </c>
-      <c r="AY2" s="14">
-        <v>43936</v>
-      </c>
-      <c r="AZ2" s="14">
-        <v>43937</v>
-      </c>
-      <c r="BA2" s="14">
-        <v>43938</v>
-      </c>
-      <c r="BB2" s="14">
-        <v>43939</v>
-      </c>
-      <c r="BC2" s="14">
-        <v>43940</v>
-      </c>
-      <c r="BD2" s="14">
-        <v>43941</v>
-      </c>
-      <c r="BE2" s="14">
-        <v>43942</v>
-      </c>
-      <c r="BF2" s="14">
-        <v>43943</v>
-      </c>
-      <c r="BG2" s="14">
-        <v>43944</v>
-      </c>
-      <c r="BH2" s="14">
-        <v>43945</v>
-      </c>
-      <c r="BI2" s="14">
-        <v>43946</v>
-      </c>
-      <c r="BJ2" s="14">
-        <v>43947</v>
-      </c>
-      <c r="BK2" s="14">
-        <v>43948</v>
-      </c>
-      <c r="BL2" s="14">
-        <v>43949</v>
-      </c>
-      <c r="BM2" s="14">
-        <v>43950</v>
-      </c>
-      <c r="BN2" s="14">
-        <v>43951</v>
-      </c>
-      <c r="BO2" s="14">
-        <v>43952</v>
-      </c>
-      <c r="BP2" s="14">
-        <v>43953</v>
-      </c>
-      <c r="BQ2" s="14">
-        <v>43954</v>
-      </c>
-      <c r="BR2" s="14">
-        <v>43955</v>
-      </c>
-      <c r="BS2" s="14">
-        <v>43956</v>
-      </c>
-      <c r="BT2" s="14">
-        <v>43957</v>
-      </c>
-      <c r="BU2" s="14">
-        <v>43958</v>
-      </c>
-      <c r="BV2" s="14">
-        <v>43959</v>
-      </c>
-      <c r="BW2" s="14">
-        <v>43960</v>
-      </c>
-      <c r="BX2" s="14">
-        <v>43961</v>
-      </c>
-      <c r="BY2" s="14">
-        <v>43962</v>
-      </c>
-      <c r="BZ2" s="14">
-        <v>43963</v>
-      </c>
-      <c r="CA2" s="14">
-        <v>43964</v>
-      </c>
-      <c r="CB2" s="14">
-        <v>43965</v>
-      </c>
-      <c r="CC2" s="14">
-        <v>43966</v>
-      </c>
-      <c r="CD2" s="14">
-        <v>43967</v>
-      </c>
-      <c r="CE2" s="14">
-        <v>43968</v>
-      </c>
-      <c r="CF2" s="14">
-        <v>43969</v>
-      </c>
-      <c r="CG2" s="14">
+      <c r="CG2" s="16">
         <v>43970</v>
       </c>
-      <c r="CH2" s="14">
+      <c r="CH2" s="16">
         <v>43971</v>
       </c>
-      <c r="CI2" s="14">
+      <c r="CI2" s="16">
         <v>43972</v>
       </c>
-      <c r="CJ2" s="14">
+      <c r="CJ2" s="16">
         <v>43973</v>
       </c>
-      <c r="CK2" s="14">
+      <c r="CK2" s="16">
         <v>43974</v>
       </c>
-      <c r="CL2" s="14">
+      <c r="CL2" s="16">
         <v>43975</v>
       </c>
-      <c r="CM2" s="14">
+      <c r="CM2" s="16">
         <v>43976</v>
       </c>
-      <c r="CN2" s="14">
+      <c r="CN2" s="16">
         <v>43977</v>
       </c>
-      <c r="CO2" s="14">
+      <c r="CO2" s="16">
         <v>43978</v>
       </c>
-      <c r="CP2" s="14">
+      <c r="CP2" s="16">
         <v>43979</v>
       </c>
-      <c r="CQ2" s="14">
+      <c r="CQ2" s="16">
         <v>43980</v>
       </c>
-      <c r="CR2" s="14">
+      <c r="CR2" s="16">
         <v>43981</v>
       </c>
-      <c r="CS2" s="14">
+      <c r="CS2" s="16">
         <v>43982</v>
       </c>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.4">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="20">
         <v>1</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="20">
         <v>1</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="20">
         <v>1</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="20">
         <v>1</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="20">
         <v>1</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="20">
         <v>1</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="20">
         <v>1</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="20">
         <v>1</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="20">
         <v>1</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="20">
         <v>1</v>
       </c>
-      <c r="O3" s="18">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18">
-        <v>0</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0</v>
-      </c>
-      <c r="V3" s="18">
-        <v>0</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0</v>
-      </c>
-      <c r="X3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="18">
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20">
+        <v>0</v>
+      </c>
+      <c r="S3" s="20">
+        <v>0</v>
+      </c>
+      <c r="T3" s="20">
+        <v>0</v>
+      </c>
+      <c r="U3" s="20">
+        <v>0</v>
+      </c>
+      <c r="V3" s="20">
+        <v>0</v>
+      </c>
+      <c r="W3" s="20">
+        <v>0</v>
+      </c>
+      <c r="X3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="20">
         <v>1</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="20">
         <v>1</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AG3" s="20">
         <v>1</v>
       </c>
-      <c r="AH3" s="18">
+      <c r="AH3" s="20">
         <v>3</v>
       </c>
-      <c r="AI3" s="18">
+      <c r="AI3" s="20">
         <v>5</v>
       </c>
-      <c r="AJ3" s="18">
+      <c r="AJ3" s="20">
         <v>6</v>
       </c>
-      <c r="AK3" s="18">
+      <c r="AK3" s="20">
         <v>10</v>
       </c>
-      <c r="AL3" s="18">
+      <c r="AL3" s="20">
         <v>11</v>
       </c>
-      <c r="AM3" s="18">
+      <c r="AM3" s="20">
         <v>17</v>
       </c>
-      <c r="AN3" s="18">
+      <c r="AN3" s="20">
         <v>19</v>
       </c>
-      <c r="AO3" s="18">
+      <c r="AO3" s="20">
         <v>22</v>
       </c>
-      <c r="AP3" s="18">
+      <c r="AP3" s="20">
         <v>25</v>
       </c>
-      <c r="AQ3" s="18">
+      <c r="AQ3" s="20">
         <v>31</v>
       </c>
-      <c r="AR3" s="18">
+      <c r="AR3" s="20">
         <v>33</v>
       </c>
-      <c r="AS3" s="18">
+      <c r="AS3" s="20">
         <v>35</v>
       </c>
-      <c r="AT3" s="18">
+      <c r="AT3" s="20">
         <v>36</v>
       </c>
-      <c r="AU3" s="18">
+      <c r="AU3" s="20">
         <v>42</v>
       </c>
-      <c r="AV3" s="18">
+      <c r="AV3" s="20">
         <v>46</v>
       </c>
-      <c r="AW3" s="18">
+      <c r="AW3" s="20">
         <v>49</v>
       </c>
-      <c r="AX3" s="18">
+      <c r="AX3" s="20">
         <v>58</v>
       </c>
-      <c r="AY3" s="18">
+      <c r="AY3" s="20">
         <v>54</v>
       </c>
-      <c r="AZ3" s="18">
+      <c r="AZ3" s="20">
         <v>66</v>
       </c>
-      <c r="BA3" s="18">
+      <c r="BA3" s="20">
         <v>66</v>
       </c>
-      <c r="BB3" s="18">
+      <c r="BB3" s="20">
         <v>70</v>
       </c>
-      <c r="BC3" s="18">
+      <c r="BC3" s="20">
         <v>69</v>
       </c>
-      <c r="BD3" s="18">
+      <c r="BD3" s="20">
         <v>69</v>
       </c>
-      <c r="BE3" s="18">
+      <c r="BE3" s="20">
         <v>67</v>
       </c>
-      <c r="BF3" s="18">
+      <c r="BF3" s="20">
         <v>57</v>
       </c>
-      <c r="BG3" s="18">
+      <c r="BG3" s="20">
         <v>49</v>
       </c>
-      <c r="BH3" s="18">
+      <c r="BH3" s="20">
         <v>46</v>
       </c>
-      <c r="BI3" s="18">
+      <c r="BI3" s="20">
         <v>44</v>
       </c>
-      <c r="BJ3" s="18">
+      <c r="BJ3" s="20">
         <v>44</v>
       </c>
-      <c r="BK3" s="18">
+      <c r="BK3" s="20">
         <v>43</v>
       </c>
-      <c r="BL3" s="18">
+      <c r="BL3" s="20">
         <v>39</v>
       </c>
-      <c r="BM3" s="18">
+      <c r="BM3" s="20">
         <v>38</v>
       </c>
-      <c r="BN3" s="18">
+      <c r="BN3" s="20">
         <v>36</v>
       </c>
-      <c r="BO3" s="18">
+      <c r="BO3" s="20">
         <v>25</v>
       </c>
-      <c r="BP3" s="18">
+      <c r="BP3" s="20">
         <v>17</v>
       </c>
-      <c r="BQ3" s="18">
+      <c r="BQ3" s="20">
         <v>15</v>
       </c>
-      <c r="BR3" s="18">
+      <c r="BR3" s="20">
         <v>15</v>
       </c>
-      <c r="BS3" s="18">
+      <c r="BS3" s="20">
         <v>13</v>
       </c>
-      <c r="BT3" s="18">
+      <c r="BT3" s="20">
         <v>13</v>
       </c>
-      <c r="BU3" s="18">
+      <c r="BU3" s="20">
         <v>13</v>
       </c>
-      <c r="BV3" s="18">
+      <c r="BV3" s="20">
         <v>9</v>
       </c>
-      <c r="BW3" s="18">
+      <c r="BW3" s="20">
         <v>7</v>
       </c>
-      <c r="BX3" s="18">
+      <c r="BX3" s="20">
         <v>7</v>
       </c>
-      <c r="BY3" s="18">
+      <c r="BY3" s="20">
         <v>7</v>
       </c>
-      <c r="BZ3" s="18">
+      <c r="BZ3" s="20">
         <v>6</v>
       </c>
-      <c r="CA3" s="18">
+      <c r="CA3" s="20">
         <v>5</v>
       </c>
-      <c r="CB3" s="18">
+      <c r="CB3" s="20">
         <v>5</v>
       </c>
-      <c r="CC3" s="18">
+      <c r="CC3" s="20">
         <v>3</v>
       </c>
-      <c r="CD3" s="18">
+      <c r="CD3" s="20">
         <v>2</v>
       </c>
-      <c r="CE3" s="18">
+      <c r="CE3" s="20">
         <v>2</v>
       </c>
-      <c r="CF3" s="18">
+      <c r="CF3" s="20">
         <v>2</v>
       </c>
-      <c r="CG3" s="18">
+      <c r="CG3" s="20">
         <v>2</v>
       </c>
-      <c r="CH3" s="18">
+      <c r="CH3" s="20">
         <v>2</v>
       </c>
-      <c r="CI3" s="18">
+      <c r="CI3" s="20">
         <v>2</v>
       </c>
-      <c r="CJ3" s="18">
+      <c r="CJ3" s="20">
         <v>2</v>
       </c>
-      <c r="CK3" s="18">
+      <c r="CK3" s="20">
         <v>2</v>
       </c>
-      <c r="CL3" s="18">
+      <c r="CL3" s="20">
         <v>2</v>
       </c>
-      <c r="CM3" s="18">
+      <c r="CM3" s="20">
         <v>2</v>
       </c>
-      <c r="CN3" s="18">
+      <c r="CN3" s="20">
         <v>2</v>
       </c>
-      <c r="CO3" s="18">
+      <c r="CO3" s="20">
         <v>2</v>
       </c>
-      <c r="CP3" s="18">
+      <c r="CP3" s="20">
         <v>2</v>
       </c>
-      <c r="CQ3" s="18">
+      <c r="CQ3" s="20">
         <v>2</v>
       </c>
-      <c r="CR3" s="18">
+      <c r="CR3" s="20">
         <v>2</v>
       </c>
-      <c r="CS3" s="18">
+      <c r="CS3" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.4">
-      <c r="C4" s="16"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="20">
         <v>1</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="20">
         <v>1</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="20">
         <v>1</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="20">
         <v>1</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="20">
         <v>1</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="20">
         <v>1</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="20">
         <v>1</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="20">
         <v>1</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="20">
         <v>1</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="20">
         <v>1</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="20">
         <v>1</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="20">
         <v>1</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="20">
         <v>1</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="20">
         <v>1</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="20">
         <v>1</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="20">
         <v>1</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="20">
         <v>1</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="20">
         <v>1</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="20">
         <v>1</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="20">
         <v>1</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="20">
         <v>1</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="20">
         <v>1</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="20">
         <v>1</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="20">
         <v>1</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="20">
         <v>2</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="20">
         <v>2</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AG4" s="20">
         <v>2</v>
       </c>
-      <c r="AH4" s="18">
+      <c r="AH4" s="20">
         <v>4</v>
       </c>
-      <c r="AI4" s="18">
+      <c r="AI4" s="20">
         <v>6</v>
       </c>
-      <c r="AJ4" s="18">
+      <c r="AJ4" s="20">
         <v>7</v>
       </c>
-      <c r="AK4" s="18">
+      <c r="AK4" s="20">
         <v>11</v>
       </c>
-      <c r="AL4" s="18">
+      <c r="AL4" s="20">
         <v>12</v>
       </c>
-      <c r="AM4" s="18">
+      <c r="AM4" s="20">
         <v>18</v>
       </c>
-      <c r="AN4" s="18">
+      <c r="AN4" s="20">
         <v>20</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4" s="20">
         <v>23</v>
       </c>
-      <c r="AP4" s="18">
+      <c r="AP4" s="20">
         <v>26</v>
       </c>
-      <c r="AQ4" s="18">
+      <c r="AQ4" s="20">
         <v>32</v>
       </c>
-      <c r="AR4" s="18">
+      <c r="AR4" s="20">
         <v>34</v>
       </c>
-      <c r="AS4" s="18">
+      <c r="AS4" s="20">
         <v>36</v>
       </c>
-      <c r="AT4" s="18">
+      <c r="AT4" s="20">
         <v>38</v>
       </c>
-      <c r="AU4" s="18">
+      <c r="AU4" s="20">
         <v>45</v>
       </c>
-      <c r="AV4" s="18">
+      <c r="AV4" s="20">
         <v>51</v>
       </c>
-      <c r="AW4" s="18">
+      <c r="AW4" s="20">
         <v>54</v>
       </c>
-      <c r="AX4" s="18">
+      <c r="AX4" s="20">
         <v>64</v>
       </c>
-      <c r="AY4" s="18">
+      <c r="AY4" s="20">
         <v>65</v>
       </c>
-      <c r="AZ4" s="18">
+      <c r="AZ4" s="20">
         <v>78</v>
       </c>
-      <c r="BA4" s="18">
+      <c r="BA4" s="20">
         <v>79</v>
       </c>
-      <c r="BB4" s="18">
+      <c r="BB4" s="20">
         <v>83</v>
       </c>
-      <c r="BC4" s="18">
+      <c r="BC4" s="20">
         <v>83</v>
       </c>
-      <c r="BD4" s="18">
+      <c r="BD4" s="20">
         <v>84</v>
       </c>
-      <c r="BE4" s="18">
+      <c r="BE4" s="20">
         <v>84</v>
       </c>
-      <c r="BF4" s="18">
+      <c r="BF4" s="20">
         <v>84</v>
       </c>
-      <c r="BG4" s="18">
+      <c r="BG4" s="20">
         <v>84</v>
       </c>
-      <c r="BH4" s="18">
+      <c r="BH4" s="20">
         <v>84</v>
       </c>
-      <c r="BI4" s="18">
+      <c r="BI4" s="20">
         <v>85</v>
       </c>
-      <c r="BJ4" s="18">
+      <c r="BJ4" s="20">
         <v>85</v>
       </c>
-      <c r="BK4" s="18">
+      <c r="BK4" s="20">
         <v>86</v>
       </c>
-      <c r="BL4" s="18">
+      <c r="BL4" s="20">
         <v>88</v>
       </c>
-      <c r="BM4" s="18">
+      <c r="BM4" s="20">
         <v>88</v>
       </c>
-      <c r="BN4" s="18">
+      <c r="BN4" s="20">
         <v>88</v>
       </c>
-      <c r="BO4" s="18">
+      <c r="BO4" s="20">
         <v>88</v>
       </c>
-      <c r="BP4" s="18">
+      <c r="BP4" s="20">
         <v>88</v>
       </c>
-      <c r="BQ4" s="18">
+      <c r="BQ4" s="20">
         <v>88</v>
       </c>
-      <c r="BR4" s="18">
+      <c r="BR4" s="20">
         <v>88</v>
       </c>
-      <c r="BS4" s="18">
+      <c r="BS4" s="20">
         <v>88</v>
       </c>
-      <c r="BT4" s="18">
+      <c r="BT4" s="20">
         <v>88</v>
       </c>
-      <c r="BU4" s="18">
+      <c r="BU4" s="20">
         <v>88</v>
       </c>
-      <c r="BV4" s="18">
+      <c r="BV4" s="20">
         <v>88</v>
       </c>
-      <c r="BW4" s="18">
+      <c r="BW4" s="20">
         <v>88</v>
       </c>
-      <c r="BX4" s="18">
+      <c r="BX4" s="20">
         <v>88</v>
       </c>
-      <c r="BY4" s="18">
+      <c r="BY4" s="20">
         <v>88</v>
       </c>
-      <c r="BZ4" s="18">
+      <c r="BZ4" s="20">
         <v>88</v>
       </c>
-      <c r="CA4" s="18">
+      <c r="CA4" s="20">
         <v>88</v>
       </c>
-      <c r="CB4" s="18">
+      <c r="CB4" s="20">
         <v>88</v>
       </c>
-      <c r="CC4" s="18">
+      <c r="CC4" s="20">
         <v>88</v>
       </c>
-      <c r="CD4" s="18">
+      <c r="CD4" s="20">
         <v>88</v>
       </c>
-      <c r="CE4" s="18">
+      <c r="CE4" s="20">
         <v>88</v>
       </c>
-      <c r="CF4" s="18">
+      <c r="CF4" s="20">
         <v>88</v>
       </c>
-      <c r="CG4" s="18">
+      <c r="CG4" s="20">
         <v>88</v>
       </c>
-      <c r="CH4" s="18">
+      <c r="CH4" s="20">
         <v>88</v>
       </c>
-      <c r="CI4" s="18">
+      <c r="CI4" s="20">
         <v>88</v>
       </c>
-      <c r="CJ4" s="18">
+      <c r="CJ4" s="20">
         <v>88</v>
       </c>
-      <c r="CK4" s="18">
+      <c r="CK4" s="20">
         <v>88</v>
       </c>
-      <c r="CL4" s="18">
+      <c r="CL4" s="20">
         <v>88</v>
       </c>
-      <c r="CM4" s="18">
+      <c r="CM4" s="20">
         <v>88</v>
       </c>
-      <c r="CN4" s="18">
+      <c r="CN4" s="20">
         <v>88</v>
       </c>
-      <c r="CO4" s="18">
+      <c r="CO4" s="20">
         <v>88</v>
       </c>
-      <c r="CP4" s="18">
+      <c r="CP4" s="20">
         <v>88</v>
       </c>
-      <c r="CQ4" s="18">
+      <c r="CQ4" s="20">
         <v>88</v>
       </c>
-      <c r="CR4" s="18">
+      <c r="CR4" s="20">
         <v>88</v>
       </c>
-      <c r="CS4" s="18">
+      <c r="CS4" s="20">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.4">
-      <c r="BF5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="20"/>
-      <c r="BJ5" s="20"/>
-      <c r="BK5" s="20"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="20"/>
-      <c r="BP5" s="20"/>
-      <c r="BQ5" s="20"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="20"/>
-      <c r="BV5" s="20"/>
-      <c r="BW5" s="20"/>
-      <c r="BX5" s="20"/>
-      <c r="BY5" s="20"/>
-      <c r="BZ5" s="20"/>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="20"/>
-      <c r="CC5" s="20"/>
-      <c r="CD5" s="20"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="20"/>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20"/>
-      <c r="CI5" s="20"/>
-      <c r="CJ5" s="20"/>
-      <c r="CK5" s="20"/>
-      <c r="CL5" s="20"/>
-      <c r="CM5" s="20"/>
-      <c r="CN5" s="20"/>
-      <c r="CO5" s="20"/>
-      <c r="CP5" s="20"/>
-      <c r="CQ5" s="20"/>
-      <c r="CR5" s="20"/>
-      <c r="CS5" s="20"/>
+      <c r="BF5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
+      <c r="BL5" s="22"/>
+      <c r="BM5" s="22"/>
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="22"/>
+      <c r="BP5" s="22"/>
+      <c r="BQ5" s="22"/>
+      <c r="BR5" s="22"/>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="22"/>
+      <c r="BU5" s="22"/>
+      <c r="BV5" s="22"/>
+      <c r="BW5" s="22"/>
+      <c r="BX5" s="22"/>
+      <c r="BY5" s="22"/>
+      <c r="BZ5" s="22"/>
+      <c r="CA5" s="22"/>
+      <c r="CB5" s="22"/>
+      <c r="CC5" s="22"/>
+      <c r="CD5" s="22"/>
+      <c r="CE5" s="22"/>
+      <c r="CF5" s="22"/>
+      <c r="CG5" s="22"/>
+      <c r="CH5" s="22"/>
+      <c r="CI5" s="22"/>
+      <c r="CJ5" s="22"/>
+      <c r="CK5" s="22"/>
+      <c r="CL5" s="22"/>
+      <c r="CM5" s="22"/>
+      <c r="CN5" s="22"/>
+      <c r="CO5" s="22"/>
+      <c r="CP5" s="22"/>
+      <c r="CQ5" s="22"/>
+      <c r="CR5" s="22"/>
+      <c r="CS5" s="22"/>
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="20">
         <v>88</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
-        <v>0</v>
-      </c>
-      <c r="W6" s="18">
-        <v>0</v>
-      </c>
-      <c r="X6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18">
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <v>0</v>
+      </c>
+      <c r="S6" s="20">
+        <v>0</v>
+      </c>
+      <c r="T6" s="20">
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
+        <v>0</v>
+      </c>
+      <c r="V6" s="20">
+        <v>0</v>
+      </c>
+      <c r="W6" s="20">
+        <v>0</v>
+      </c>
+      <c r="X6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="20">
         <v>1</v>
       </c>
-      <c r="AF6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="18">
+      <c r="AF6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="20">
         <v>2</v>
       </c>
-      <c r="AI6" s="18">
+      <c r="AI6" s="20">
         <v>2</v>
       </c>
-      <c r="AJ6" s="18">
+      <c r="AJ6" s="20">
         <v>1</v>
       </c>
-      <c r="AK6" s="18">
+      <c r="AK6" s="20">
         <v>4</v>
       </c>
-      <c r="AL6" s="18">
+      <c r="AL6" s="20">
         <v>1</v>
       </c>
-      <c r="AM6" s="18">
+      <c r="AM6" s="20">
         <v>6</v>
       </c>
-      <c r="AN6" s="18">
+      <c r="AN6" s="20">
         <v>2</v>
       </c>
-      <c r="AO6" s="18">
+      <c r="AO6" s="20">
         <v>3</v>
       </c>
-      <c r="AP6" s="18">
+      <c r="AP6" s="20">
         <v>3</v>
       </c>
-      <c r="AQ6" s="18">
+      <c r="AQ6" s="20">
         <v>6</v>
       </c>
-      <c r="AR6" s="18">
+      <c r="AR6" s="20">
         <v>2</v>
       </c>
-      <c r="AS6" s="18">
+      <c r="AS6" s="20">
         <v>2</v>
       </c>
-      <c r="AT6" s="18">
+      <c r="AT6" s="20">
         <v>2</v>
       </c>
-      <c r="AU6" s="18">
+      <c r="AU6" s="20">
         <v>7</v>
       </c>
-      <c r="AV6" s="18">
+      <c r="AV6" s="20">
         <v>6</v>
       </c>
-      <c r="AW6" s="18">
+      <c r="AW6" s="20">
         <v>3</v>
       </c>
-      <c r="AX6" s="18">
+      <c r="AX6" s="20">
         <v>10</v>
       </c>
-      <c r="AY6" s="18">
+      <c r="AY6" s="20">
         <v>1</v>
       </c>
-      <c r="AZ6" s="18">
+      <c r="AZ6" s="20">
         <v>13</v>
       </c>
-      <c r="BA6" s="18">
+      <c r="BA6" s="20">
         <v>1</v>
       </c>
-      <c r="BB6" s="18">
+      <c r="BB6" s="20">
         <v>4</v>
       </c>
-      <c r="BC6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="18">
+      <c r="BC6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="20">
         <v>1</v>
       </c>
-      <c r="BE6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="18">
+      <c r="BE6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="20">
         <v>1</v>
       </c>
-      <c r="BJ6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="18">
+      <c r="BJ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="20">
         <v>1</v>
       </c>
-      <c r="BL6" s="18">
+      <c r="BL6" s="20">
         <v>2</v>
       </c>
-      <c r="BM6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="18">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="18">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="18">
+      <c r="BM6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="20">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <v>85</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
         <v>1</v>
       </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="18">
+      <c r="P7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0</v>
+      </c>
+      <c r="V7" s="20">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
+      <c r="X7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="20">
         <v>1</v>
       </c>
-      <c r="AU7" s="18">
+      <c r="AU7" s="20">
         <v>1</v>
       </c>
-      <c r="AV7" s="18">
+      <c r="AV7" s="20">
         <v>2</v>
       </c>
-      <c r="AW7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="18">
+      <c r="AW7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="20">
         <v>1</v>
       </c>
-      <c r="AY7" s="18">
+      <c r="AY7" s="20">
         <v>5</v>
       </c>
-      <c r="AZ7" s="18">
+      <c r="AZ7" s="20">
         <v>1</v>
       </c>
-      <c r="BA7" s="18">
+      <c r="BA7" s="20">
         <v>1</v>
       </c>
-      <c r="BB7" s="18">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="18">
+      <c r="BB7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="20">
         <v>1</v>
       </c>
-      <c r="BD7" s="18">
+      <c r="BD7" s="20">
         <v>1</v>
       </c>
-      <c r="BE7" s="18">
+      <c r="BE7" s="20">
         <v>2</v>
       </c>
-      <c r="BF7" s="18">
+      <c r="BF7" s="20">
         <v>10</v>
       </c>
-      <c r="BG7" s="18">
+      <c r="BG7" s="20">
         <v>8</v>
       </c>
-      <c r="BH7" s="18">
+      <c r="BH7" s="20">
         <v>3</v>
       </c>
-      <c r="BI7" s="18">
+      <c r="BI7" s="20">
         <v>3</v>
       </c>
-      <c r="BJ7" s="18">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="18">
+      <c r="BJ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="20">
         <v>2</v>
       </c>
-      <c r="BL7" s="18">
+      <c r="BL7" s="20">
         <v>6</v>
       </c>
-      <c r="BM7" s="18">
+      <c r="BM7" s="20">
         <v>1</v>
       </c>
-      <c r="BN7" s="18">
+      <c r="BN7" s="20">
         <v>2</v>
       </c>
-      <c r="BO7" s="18">
+      <c r="BO7" s="20">
         <v>11</v>
       </c>
-      <c r="BP7" s="18">
+      <c r="BP7" s="20">
         <v>8</v>
       </c>
-      <c r="BQ7" s="18">
+      <c r="BQ7" s="20">
         <v>2</v>
       </c>
-      <c r="BR7" s="18">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="18">
+      <c r="BR7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="20">
         <v>2</v>
       </c>
-      <c r="BT7" s="18">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="18">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="18">
+      <c r="BT7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="20">
         <v>4</v>
       </c>
-      <c r="BW7" s="18">
+      <c r="BW7" s="20">
         <v>1</v>
       </c>
-      <c r="BX7" s="18">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="18">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="18">
+      <c r="BX7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="20">
         <v>1</v>
       </c>
-      <c r="CA7" s="18">
+      <c r="CA7" s="20">
         <v>1</v>
       </c>
-      <c r="CB7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="18">
+      <c r="CB7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="20">
         <v>2</v>
       </c>
-      <c r="CD7" s="18">
+      <c r="CD7" s="20">
         <v>1</v>
       </c>
-      <c r="CE7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="18">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="18">
+      <c r="CE7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="20">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="20">
         <v>1</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18">
-        <v>0</v>
-      </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
-        <v>0</v>
-      </c>
-      <c r="V8" s="18">
-        <v>0</v>
-      </c>
-      <c r="W8" s="18">
-        <v>0</v>
-      </c>
-      <c r="X8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="18">
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20">
+        <v>0</v>
+      </c>
+      <c r="X8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="20">
         <v>1</v>
       </c>
-      <c r="BX8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="18">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CQ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CR8" s="18">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="18">
+      <c r="BX8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="20">
         <v>0</v>
       </c>
     </row>
@@ -10530,7 +12329,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.47244094488188981" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10543,7 +12342,7 @@
   <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10565,7 +12364,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="22">
+      <c r="A2" s="24">
         <v>43845</v>
       </c>
       <c r="B2">
@@ -10574,21 +12373,21 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="O2" s="39">
-        <v>43969</v>
-      </c>
-      <c r="P2" s="39"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="O2" s="27">
+        <v>43970</v>
+      </c>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A3" s="22">
+      <c r="A3" s="24">
         <v>43846</v>
       </c>
       <c r="B3">
@@ -10597,17 +12396,17 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="22">
+      <c r="A4" s="24">
         <v>43847</v>
       </c>
       <c r="B4">
@@ -10618,7 +12417,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="22">
+      <c r="A5" s="24">
         <v>43848</v>
       </c>
       <c r="B5">
@@ -10629,7 +12428,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="22">
+      <c r="A6" s="24">
         <v>43849</v>
       </c>
       <c r="B6">
@@ -10640,7 +12439,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="22">
+      <c r="A7" s="24">
         <v>43850</v>
       </c>
       <c r="B7">
@@ -10651,7 +12450,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="22">
+      <c r="A8" s="24">
         <v>43851</v>
       </c>
       <c r="B8">
@@ -10662,7 +12461,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
+      <c r="A9" s="24">
         <v>43852</v>
       </c>
       <c r="B9">
@@ -10673,7 +12472,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
+      <c r="A10" s="24">
         <v>43853</v>
       </c>
       <c r="B10">
@@ -10684,7 +12483,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="22">
+      <c r="A11" s="24">
         <v>43854</v>
       </c>
       <c r="B11">
@@ -10695,7 +12494,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="22">
+      <c r="A12" s="24">
         <v>43855</v>
       </c>
       <c r="B12">
@@ -10706,7 +12505,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="22">
+      <c r="A13" s="24">
         <v>43856</v>
       </c>
       <c r="B13">
@@ -10717,7 +12516,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="22">
+      <c r="A14" s="24">
         <v>43857</v>
       </c>
       <c r="B14">
@@ -10728,7 +12527,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="22">
+      <c r="A15" s="24">
         <v>43858</v>
       </c>
       <c r="B15">
@@ -10739,7 +12538,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="22">
+      <c r="A16" s="24">
         <v>43859</v>
       </c>
       <c r="B16">
@@ -10750,7 +12549,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="22">
+      <c r="A17" s="24">
         <v>43860</v>
       </c>
       <c r="B17">
@@ -10761,7 +12560,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="22">
+      <c r="A18" s="24">
         <v>43861</v>
       </c>
       <c r="B18">
@@ -10772,7 +12571,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="22">
+      <c r="A19" s="24">
         <v>43862</v>
       </c>
       <c r="B19">
@@ -10783,7 +12582,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="22">
+      <c r="A20" s="24">
         <v>43863</v>
       </c>
       <c r="B20">
@@ -10794,7 +12593,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="22">
+      <c r="A21" s="24">
         <v>43864</v>
       </c>
       <c r="B21">
@@ -10805,7 +12604,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="22">
+      <c r="A22" s="24">
         <v>43865</v>
       </c>
       <c r="B22">
@@ -10816,7 +12615,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="22">
+      <c r="A23" s="24">
         <v>43866</v>
       </c>
       <c r="B23">
@@ -10827,7 +12626,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="22">
+      <c r="A24" s="24">
         <v>43867</v>
       </c>
       <c r="B24">
@@ -10838,7 +12637,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="22">
+      <c r="A25" s="24">
         <v>43868</v>
       </c>
       <c r="B25">
@@ -10849,7 +12648,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="22">
+      <c r="A26" s="24">
         <v>43872</v>
       </c>
       <c r="B26">
@@ -10860,7 +12659,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="22">
+      <c r="A27" s="24">
         <v>43873</v>
       </c>
       <c r="B27">
@@ -10871,7 +12670,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="22">
+      <c r="A28" s="24">
         <v>43874</v>
       </c>
       <c r="B28">
@@ -10882,7 +12681,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="22">
+      <c r="A29" s="24">
         <v>43875</v>
       </c>
       <c r="B29">
@@ -10893,7 +12692,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="22">
+      <c r="A30" s="24">
         <v>43876</v>
       </c>
       <c r="B30">
@@ -10904,7 +12703,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="22">
+      <c r="A31" s="24">
         <v>43877</v>
       </c>
       <c r="B31">
@@ -10915,7 +12714,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="22">
+      <c r="A32" s="24">
         <v>43878</v>
       </c>
       <c r="B32">
@@ -10926,7 +12725,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="22">
+      <c r="A33" s="24">
         <v>43879</v>
       </c>
       <c r="B33">
@@ -10937,7 +12736,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="22">
+      <c r="A34" s="24">
         <v>43880</v>
       </c>
       <c r="B34">
@@ -10948,7 +12747,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="22">
+      <c r="A35" s="24">
         <v>43881</v>
       </c>
       <c r="B35">
@@ -10959,7 +12758,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="22">
+      <c r="A36" s="24">
         <v>43882</v>
       </c>
       <c r="B36">
@@ -10970,7 +12769,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="22">
+      <c r="A37" s="24">
         <v>43883</v>
       </c>
       <c r="B37">
@@ -10981,7 +12780,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="22">
+      <c r="A38" s="24">
         <v>43884</v>
       </c>
       <c r="B38">
@@ -10992,7 +12791,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="22">
+      <c r="A39" s="24">
         <v>43885</v>
       </c>
       <c r="B39">
@@ -11003,7 +12802,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="22">
+      <c r="A40" s="24">
         <v>43886</v>
       </c>
       <c r="B40">
@@ -11014,7 +12813,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="22">
+      <c r="A41" s="24">
         <v>43887</v>
       </c>
       <c r="B41">
@@ -11025,7 +12824,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="22">
+      <c r="A42" s="24">
         <v>43888</v>
       </c>
       <c r="B42">
@@ -11036,7 +12835,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="22">
+      <c r="A43" s="24">
         <v>43889</v>
       </c>
       <c r="B43">
@@ -11047,7 +12846,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="22">
+      <c r="A44" s="24">
         <v>43890</v>
       </c>
       <c r="B44">
@@ -11058,7 +12857,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="22">
+      <c r="A45" s="24">
         <v>43891</v>
       </c>
       <c r="B45">
@@ -11069,7 +12868,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="22">
+      <c r="A46" s="24">
         <v>43892</v>
       </c>
       <c r="B46">
@@ -11080,7 +12879,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="22">
+      <c r="A47" s="24">
         <v>43893</v>
       </c>
       <c r="B47">
@@ -11091,7 +12890,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="22">
+      <c r="A48" s="24">
         <v>43894</v>
       </c>
       <c r="B48">
@@ -11102,7 +12901,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="22">
+      <c r="A49" s="24">
         <v>43895</v>
       </c>
       <c r="B49">
@@ -11113,7 +12912,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="22">
+      <c r="A50" s="24">
         <v>43896</v>
       </c>
       <c r="B50">
@@ -11124,7 +12923,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="22">
+      <c r="A51" s="24">
         <v>43897</v>
       </c>
       <c r="B51">
@@ -11135,7 +12934,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="22">
+      <c r="A52" s="24">
         <v>43898</v>
       </c>
       <c r="B52">
@@ -11146,7 +12945,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="22">
+      <c r="A53" s="24">
         <v>43899</v>
       </c>
       <c r="B53">
@@ -11157,7 +12956,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="22">
+      <c r="A54" s="24">
         <v>43900</v>
       </c>
       <c r="B54">
@@ -11168,7 +12967,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="22">
+      <c r="A55" s="24">
         <v>43901</v>
       </c>
       <c r="B55">
@@ -11179,7 +12978,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="22">
+      <c r="A56" s="24">
         <v>43902</v>
       </c>
       <c r="B56">
@@ -11190,7 +12989,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="22">
+      <c r="A57" s="24">
         <v>43903</v>
       </c>
       <c r="B57">
@@ -11201,7 +13000,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="22">
+      <c r="A58" s="24">
         <v>43904</v>
       </c>
       <c r="B58">
@@ -11212,7 +13011,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="22">
+      <c r="A59" s="24">
         <v>43905</v>
       </c>
       <c r="B59">
@@ -11223,7 +13022,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="22">
+      <c r="A60" s="24">
         <v>43906</v>
       </c>
       <c r="B60">
@@ -11234,7 +13033,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" s="22">
+      <c r="A61" s="24">
         <v>43907</v>
       </c>
       <c r="B61">
@@ -11245,7 +13044,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="22">
+      <c r="A62" s="24">
         <v>43908</v>
       </c>
       <c r="B62">
@@ -11256,7 +13055,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" s="22">
+      <c r="A63" s="24">
         <v>43909</v>
       </c>
       <c r="B63">
@@ -11267,7 +13066,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="22">
+      <c r="A64" s="24">
         <v>43910</v>
       </c>
       <c r="B64">
@@ -11278,7 +13077,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="22">
+      <c r="A65" s="24">
         <v>43911</v>
       </c>
       <c r="B65">
@@ -11289,7 +13088,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="22">
+      <c r="A66" s="24">
         <v>43912</v>
       </c>
       <c r="B66">
@@ -11300,7 +13099,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" s="22">
+      <c r="A67" s="24">
         <v>43913</v>
       </c>
       <c r="B67">
@@ -11311,7 +13110,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" s="22">
+      <c r="A68" s="24">
         <v>43914</v>
       </c>
       <c r="B68">
@@ -11322,7 +13121,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" s="22">
+      <c r="A69" s="24">
         <v>43915</v>
       </c>
       <c r="B69">
@@ -11333,7 +13132,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" s="22">
+      <c r="A70" s="24">
         <v>43916</v>
       </c>
       <c r="B70">
@@ -11344,7 +13143,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" s="22">
+      <c r="A71" s="24">
         <v>43917</v>
       </c>
       <c r="B71">
@@ -11355,7 +13154,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" s="22">
+      <c r="A72" s="24">
         <v>43918</v>
       </c>
       <c r="B72">
@@ -11366,7 +13165,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" s="22">
+      <c r="A73" s="24">
         <v>43919</v>
       </c>
       <c r="B73">
@@ -11377,7 +13176,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" s="22">
+      <c r="A74" s="24">
         <v>43920</v>
       </c>
       <c r="B74">
@@ -11388,7 +13187,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" s="22">
+      <c r="A75" s="24">
         <v>43921</v>
       </c>
       <c r="B75">
@@ -11399,7 +13198,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" s="22">
+      <c r="A76" s="24">
         <v>43922</v>
       </c>
       <c r="B76">
@@ -11410,7 +13209,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" s="22">
+      <c r="A77" s="24">
         <v>43923</v>
       </c>
       <c r="B77">
@@ -11421,7 +13220,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" s="22">
+      <c r="A78" s="24">
         <v>43924</v>
       </c>
       <c r="B78">
@@ -11432,7 +13231,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" s="22">
+      <c r="A79" s="24">
         <v>43925</v>
       </c>
       <c r="B79">
@@ -11443,7 +13242,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" s="22">
+      <c r="A80" s="24">
         <v>43926</v>
       </c>
       <c r="B80">
@@ -11454,7 +13253,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" s="22">
+      <c r="A81" s="24">
         <v>43927</v>
       </c>
       <c r="B81">
@@ -11465,7 +13264,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" s="22">
+      <c r="A82" s="24">
         <v>43928</v>
       </c>
       <c r="B82">
@@ -11476,7 +13275,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" s="22">
+      <c r="A83" s="24">
         <v>43929</v>
       </c>
       <c r="B83">
@@ -11487,7 +13286,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" s="22">
+      <c r="A84" s="24">
         <v>43930</v>
       </c>
       <c r="B84">
@@ -11498,7 +13297,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85" s="22">
+      <c r="A85" s="24">
         <v>43931</v>
       </c>
       <c r="B85">
@@ -11509,7 +13308,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" s="22">
+      <c r="A86" s="24">
         <v>43932</v>
       </c>
       <c r="B86">
@@ -11520,7 +13319,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" s="22">
+      <c r="A87" s="24">
         <v>43933</v>
       </c>
       <c r="B87">
@@ -11531,7 +13330,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" s="22">
+      <c r="A88" s="24">
         <v>43934</v>
       </c>
       <c r="B88">
@@ -11542,7 +13341,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" s="22">
+      <c r="A89" s="24">
         <v>43935</v>
       </c>
       <c r="B89">
@@ -11553,7 +13352,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" s="22">
+      <c r="A90" s="24">
         <v>43936</v>
       </c>
       <c r="B90">
@@ -11564,7 +13363,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" s="22">
+      <c r="A91" s="24">
         <v>43937</v>
       </c>
       <c r="B91">
@@ -11575,7 +13374,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" s="22">
+      <c r="A92" s="24">
         <v>43938</v>
       </c>
       <c r="B92">
@@ -11586,7 +13385,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" s="22">
+      <c r="A93" s="24">
         <v>43939</v>
       </c>
       <c r="B93">
@@ -11597,7 +13396,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" s="22">
+      <c r="A94" s="24">
         <v>43940</v>
       </c>
       <c r="B94">
@@ -11608,7 +13407,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" s="22">
+      <c r="A95" s="24">
         <v>43941</v>
       </c>
       <c r="B95">
@@ -11619,7 +13418,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" s="22">
+      <c r="A96" s="24">
         <v>43942</v>
       </c>
       <c r="B96">
@@ -11630,7 +13429,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97" s="22">
+      <c r="A97" s="24">
         <v>43943</v>
       </c>
       <c r="B97">
@@ -11641,7 +13440,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" s="22">
+      <c r="A98" s="24">
         <v>43944</v>
       </c>
       <c r="B98">
@@ -11652,7 +13451,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99" s="22">
+      <c r="A99" s="24">
         <v>43945</v>
       </c>
       <c r="B99">
@@ -11663,7 +13462,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" s="22">
+      <c r="A100" s="24">
         <v>43946</v>
       </c>
       <c r="B100">
@@ -11674,7 +13473,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101" s="22">
+      <c r="A101" s="24">
         <v>43947</v>
       </c>
       <c r="B101">
@@ -11685,7 +13484,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" s="22">
+      <c r="A102" s="24">
         <v>43948</v>
       </c>
       <c r="B102">
@@ -11696,7 +13495,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103" s="22">
+      <c r="A103" s="24">
         <v>43949</v>
       </c>
       <c r="B103">
@@ -11707,7 +13506,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104" s="22">
+      <c r="A104" s="24">
         <v>43950</v>
       </c>
       <c r="B104">
@@ -11718,7 +13517,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" s="22">
+      <c r="A105" s="24">
         <v>43951</v>
       </c>
       <c r="B105">
@@ -11729,7 +13528,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" s="22">
+      <c r="A106" s="24">
         <v>43952</v>
       </c>
       <c r="B106">
@@ -11740,7 +13539,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107" s="22">
+      <c r="A107" s="24">
         <v>43953</v>
       </c>
       <c r="B107">
@@ -11751,7 +13550,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108" s="22">
+      <c r="A108" s="24">
         <v>43954</v>
       </c>
       <c r="B108">
@@ -11762,7 +13561,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109" s="22">
+      <c r="A109" s="24">
         <v>43955</v>
       </c>
       <c r="B109">
@@ -11773,7 +13572,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110" s="22">
+      <c r="A110" s="24">
         <v>43956</v>
       </c>
       <c r="B110">
@@ -11784,7 +13583,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111" s="22">
+      <c r="A111" s="24">
         <v>43957</v>
       </c>
       <c r="B111">
@@ -11795,7 +13594,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112" s="22">
+      <c r="A112" s="24">
         <v>43958</v>
       </c>
       <c r="B112">
@@ -11806,7 +13605,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113" s="22">
+      <c r="A113" s="24">
         <v>43959</v>
       </c>
       <c r="B113">
@@ -11817,7 +13616,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114" s="22">
+      <c r="A114" s="24">
         <v>43960</v>
       </c>
       <c r="B114">
@@ -11828,7 +13627,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115" s="22">
+      <c r="A115" s="24">
         <v>43961</v>
       </c>
       <c r="B115">
@@ -11839,7 +13638,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116" s="22">
+      <c r="A116" s="24">
         <v>43962</v>
       </c>
       <c r="B116">
@@ -11850,7 +13649,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117" s="22">
+      <c r="A117" s="24">
         <v>43963</v>
       </c>
       <c r="B117">
@@ -11861,7 +13660,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118" s="22">
+      <c r="A118" s="24">
         <v>43964</v>
       </c>
       <c r="B118">
@@ -11872,7 +13671,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119" s="22">
+      <c r="A119" s="24">
         <v>43965</v>
       </c>
       <c r="B119">
@@ -11883,7 +13682,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120" s="22">
+      <c r="A120" s="24">
         <v>43966</v>
       </c>
       <c r="B120">
@@ -11894,7 +13693,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121" s="22">
+      <c r="A121" s="24">
         <v>43967</v>
       </c>
       <c r="B121">
@@ -11905,7 +13704,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" s="22">
+      <c r="A122" s="24">
         <v>43968</v>
       </c>
       <c r="B122">
@@ -11916,7 +13715,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" s="22">
+      <c r="A123" s="24">
         <v>43969</v>
       </c>
       <c r="B123">
@@ -11927,7 +13726,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124" s="22">
+      <c r="A124" s="24">
         <v>43970</v>
       </c>
       <c r="B124">
@@ -11938,7 +13737,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" s="22">
+      <c r="A125" s="24">
         <v>43971</v>
       </c>
       <c r="B125">
@@ -11949,7 +13748,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126" s="22">
+      <c r="A126" s="24">
         <v>43972</v>
       </c>
       <c r="B126">
@@ -11960,7 +13759,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127" s="22">
+      <c r="A127" s="24">
         <v>43973</v>
       </c>
       <c r="B127">
@@ -11971,7 +13770,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" s="22">
+      <c r="A128" s="24">
         <v>43974</v>
       </c>
       <c r="B128">
@@ -11982,7 +13781,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" s="22">
+      <c r="A129" s="24">
         <v>43975</v>
       </c>
       <c r="B129">
@@ -11993,7 +13792,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" s="22">
+      <c r="A130" s="24">
         <v>43976</v>
       </c>
       <c r="B130">
@@ -12004,7 +13803,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" s="22">
+      <c r="A131" s="24">
         <v>43977</v>
       </c>
       <c r="B131">
@@ -12015,7 +13814,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" s="22">
+      <c r="A132" s="24">
         <v>43978</v>
       </c>
       <c r="B132">
@@ -12026,7 +13825,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" s="22">
+      <c r="A133" s="24">
         <v>43979</v>
       </c>
       <c r="B133">
@@ -12037,7 +13836,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" s="22">
+      <c r="A134" s="24">
         <v>43980</v>
       </c>
       <c r="B134">
@@ -12048,7 +13847,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" s="22">
+      <c r="A135" s="24">
         <v>43981</v>
       </c>
       <c r="B135">
@@ -12059,7 +13858,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" s="22">
+      <c r="A136" s="24">
         <v>43982</v>
       </c>
       <c r="B136">
@@ -12089,7 +13888,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12104,25 +13903,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H2" s="43">
-        <v>43969</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="H2" s="30">
+        <v>43970</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -12130,102 +13929,102 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="26">
+      <c r="C6" s="31"/>
+      <c r="D6" s="33">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="40"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="40"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="40"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="40"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="33">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="40"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
@@ -12233,116 +14032,116 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="25" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="M20" s="28" t="s">
+      <c r="D20" s="33">
+        <v>0</v>
+      </c>
+      <c r="M20" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="40"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="33">
         <v>13</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="40"/>
-      <c r="C22" s="28" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="33">
         <v>9</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="40"/>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="26">
-        <v>0</v>
-      </c>
-      <c r="M23" s="28" t="s">
+      <c r="D23" s="33">
+        <v>0</v>
+      </c>
+      <c r="M23" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="40"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="28" t="s">
+      <c r="D24" s="33">
+        <v>0</v>
+      </c>
+      <c r="M24" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="40"/>
-      <c r="C25" s="28" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="26">
-        <v>0</v>
-      </c>
-      <c r="M25" s="28" t="s">
+      <c r="D25" s="33">
+        <v>0</v>
+      </c>
+      <c r="M25" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="40"/>
-      <c r="C26" s="28" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="33">
         <v>1</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="33">
         <v>64</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="44">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="33">
         <v>1</v>
       </c>
       <c r="M28" t="s">
@@ -12350,11 +14149,11 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="34"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="33">
         <v>88</v>
       </c>
       <c r="M29" t="s">
@@ -12368,12 +14167,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B20:B26"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B20:B26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid19miyagi/latest.xlsx
+++ b/data/covid19miyagi/latest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\0917\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\0918\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,23 +21,23 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$340</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$349</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'日別集計（HP掲載）'!$F$1:$T$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$GX$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$GY$105</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'患者状況一覧（HP掲載）'!$2:$3</definedName>
-    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$189</definedName>
+    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="3" hidden="1">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
-    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$2:$F$98</definedName>
-    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="2" hidden="1">'日別集計（HP掲載）'!$F$1:$S$25</definedName>
-    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="1" hidden="1">'累計グラフ（HP掲載）'!$D$1:$DY$67</definedName>
+    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$2:$F$340</definedName>
+    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="2" hidden="1">'日別集計（HP掲載）'!$F$1:$T$25</definedName>
+    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="1" hidden="1">'累計グラフ（HP掲載）'!$A$1:$GX$105</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintTitles" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$2:$3</definedName>
-    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$189</definedName>
+    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="3" hidden="1">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
-    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$2:$F$92</definedName>
-    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="2" hidden="1">'日別集計（HP掲載）'!$F$1:$R$25</definedName>
-    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="1" hidden="1">'累計グラフ（HP掲載）'!$D$1:$DO$46</definedName>
+    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$2:$F$340</definedName>
+    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="2" hidden="1">'日別集計（HP掲載）'!$F$1:$T$25</definedName>
+    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="1" hidden="1">'累計グラフ（HP掲載）'!$A$1:$GX$105</definedName>
     <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintTitles" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="88">
   <si>
     <t>＜患者発生状況一覧＞</t>
     <rPh sb="1" eb="3">
@@ -155,10 +155,10 @@
     <t>入院中</t>
   </si>
   <si>
-    <t>療養中</t>
+    <t>仙南保健所管内</t>
   </si>
   <si>
-    <t>仙南保健所管内</t>
+    <t>療養中</t>
   </si>
   <si>
     <t>入院調整中</t>
@@ -698,7 +698,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>うち塩釜：82人</t>
+    <t>うち塩釜：88人</t>
   </si>
   <si>
     <t>総計</t>
@@ -708,7 +708,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>うち仙台市：229人</t>
+    <t>うち仙台市：231人</t>
   </si>
   <si>
     <t>県外：4人</t>
@@ -2692,12 +2692,15 @@
                 <c:pt idx="200">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="201">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000000-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4140,12 +4143,15 @@
                 <c:pt idx="200">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="201">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000001-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5591,12 +5597,15 @@
                 <c:pt idx="200">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="201">
+                  <c:v>14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000002-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7034,17 +7043,20 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000003-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8627,7 +8639,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000004-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9727,142 +9739,142 @@
                   <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>337</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9870,7 +9882,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000005-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9891,7 +9903,7 @@
         <c:axId val="487015024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44090"/>
+          <c:max val="44091"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11765,10 +11777,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>0</c:v>
@@ -11814,7 +11826,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6433-4A0A-A67E-3608D4C2A144}"/>
+              <c16:uniqueId val="{00000000-A6E0-41E4-8045-931B24AF5582}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13261,7 +13273,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6433-4A0A-A67E-3608D4C2A144}"/>
+              <c16:uniqueId val="{00000001-A6E0-41E4-8045-931B24AF5582}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13281,7 +13293,7 @@
         <c:axId val="588931344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44090"/>
+          <c:max val="44091"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13536,7 +13548,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000001-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13582,7 +13594,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000003-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13628,7 +13640,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000005-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13674,7 +13686,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000007-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13720,7 +13732,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000009-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13766,7 +13778,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{0000000B-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13775,8 +13787,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11264921161649005"/>
-                  <c:y val="7.1741669804356395E-2"/>
+                  <c:x val="-6.0944231277535801E-2"/>
+                  <c:y val="5.8501854448749892E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -13793,7 +13805,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000001-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13801,8 +13813,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12785786673581551"/>
-                  <c:y val="2.9754934078868168E-3"/>
+                  <c:x val="-8.4107498756700358E-2"/>
+                  <c:y val="2.9754934078868177E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -13824,7 +13836,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000003-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13833,7 +13845,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.5354907244209104E-3"/>
-                  <c:y val="6.1402858608288792E-2"/>
+                  <c:y val="0.14612048135619352"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -13884,7 +13896,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000005-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13892,8 +13904,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5455504904926727E-2"/>
-                  <c:y val="0.1790614058233545"/>
+                  <c:x val="-0.11534203580452448"/>
+                  <c:y val="0.23553982098862419"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -13915,7 +13927,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000007-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13946,7 +13958,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000009-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13972,7 +13984,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{0000000B-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -14065,19 +14077,19 @@
                 <c:formatCode>0"人"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -14087,7 +14099,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+              <c16:uniqueId val="{0000000C-E47B-4A75-A891-A785CCC316FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15828,13 +15840,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>105045</xdr:colOff>
+      <xdr:colOff>105044</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>205</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
+      <xdr:col>206</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>149677</xdr:rowOff>
     </xdr:to>
@@ -16155,7 +16167,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>311人</a:t>
+            <a:t>319人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16215,7 +16227,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち塩釜：82人</a:t>
+            <a:t>うち塩釜：88人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16275,7 +16287,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち仙台市：229人</a:t>
+            <a:t>うち仙台市：231人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16335,7 +16347,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>10人</a:t>
+            <a:t>11人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16638,15 +16650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>11204</xdr:rowOff>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
+      <xdr:colOff>33058</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>87404</xdr:rowOff>
+      <xdr:rowOff>121022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18090,6 +18102,9 @@
           <cell r="GX5">
             <v>11</v>
           </cell>
+          <cell r="GY5">
+            <v>13</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="E6" t="str">
@@ -18698,6 +18713,9 @@
           <cell r="GX6">
             <v>22</v>
           </cell>
+          <cell r="GY6">
+            <v>21</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="E7" t="str">
@@ -19306,6 +19324,9 @@
           <cell r="GX7">
             <v>13</v>
           </cell>
+          <cell r="GY7">
+            <v>14</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="E8" t="str">
@@ -19909,10 +19930,13 @@
             <v>28</v>
           </cell>
           <cell r="GW8">
-            <v>42</v>
+            <v>40</v>
           </cell>
           <cell r="GX8">
-            <v>37</v>
+            <v>36</v>
+          </cell>
+          <cell r="GY8">
+            <v>33</v>
           </cell>
         </row>
         <row r="9">
@@ -20521,142 +20545,142 @@
             <v>332</v>
           </cell>
           <cell r="GX9">
-            <v>337</v>
+            <v>338</v>
           </cell>
           <cell r="GY9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="GZ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HA9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HB9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HC9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HD9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HE9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HF9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HG9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HH9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HI9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HJ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HK9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HL9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HM9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HN9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HO9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HP9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HQ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HR9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HS9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HT9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HU9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HV9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HW9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HX9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HY9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HZ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IA9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IB9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IC9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="ID9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IE9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IF9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IG9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IH9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="II9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IJ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IK9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IL9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IM9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IN9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IO9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IP9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IQ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
         </row>
         <row r="13">
@@ -23951,7 +23975,7 @@
             <v>44090</v>
           </cell>
           <cell r="B244">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="245">
@@ -23959,7 +23983,7 @@
             <v>44091</v>
           </cell>
           <cell r="B245">
-            <v>0</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="246">
@@ -24073,7 +24097,7 @@
             <v>入院中</v>
           </cell>
           <cell r="R7">
-            <v>33</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="8">
@@ -24081,7 +24105,7 @@
             <v>入院調整中</v>
           </cell>
           <cell r="R8">
-            <v>27</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="9">
@@ -24089,7 +24113,7 @@
             <v>宿泊療養中</v>
           </cell>
           <cell r="R9">
-            <v>13</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="10">
@@ -24097,7 +24121,7 @@
             <v>自宅療養中</v>
           </cell>
           <cell r="R10">
-            <v>9</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="11">
@@ -24105,7 +24129,7 @@
             <v>退院・療養解除</v>
           </cell>
           <cell r="R11">
-            <v>261</v>
+            <v>271</v>
           </cell>
         </row>
         <row r="12">
@@ -24390,12 +24414,12 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EQ340"/>
+  <dimension ref="A1:EQ349"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="F337" sqref="F337"/>
-      <selection pane="bottomLeft" activeCell="F337" sqref="F337"/>
+      <pane ySplit="3" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F362" sqref="F362"/>
+      <selection pane="bottomLeft" activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -24419,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>44091</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="3" spans="1:147" ht="42" customHeight="1" x14ac:dyDescent="0.4">
@@ -30006,7 +30030,7 @@
         <v>44080</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>9</v>
@@ -30305,7 +30329,7 @@
         <v>44082</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>9</v>
@@ -30420,7 +30444,7 @@
         <v>44083</v>
       </c>
       <c r="F262" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>14</v>
@@ -30437,7 +30461,7 @@
         <v>12</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E263" s="11">
         <v>44083</v>
@@ -30558,7 +30582,7 @@
         <v>44083</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>9</v>
@@ -30581,7 +30605,7 @@
         <v>44083</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>9</v>
@@ -30604,7 +30628,7 @@
         <v>44083</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>9</v>
@@ -30650,7 +30674,7 @@
         <v>44084</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>9</v>
@@ -30667,13 +30691,13 @@
         <v>12</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E273" s="11">
         <v>44084</v>
       </c>
       <c r="F273" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>14</v>
@@ -30690,13 +30714,13 @@
         <v>12</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E274" s="11">
         <v>44084</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>14</v>
@@ -30834,7 +30858,7 @@
         <v>44085</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>9</v>
@@ -30880,7 +30904,7 @@
         <v>44085</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>9</v>
@@ -30903,7 +30927,7 @@
         <v>44085</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>9</v>
@@ -30926,7 +30950,7 @@
         <v>44084</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>14</v>
@@ -30949,7 +30973,7 @@
         <v>44085</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>14</v>
@@ -30972,7 +30996,7 @@
         <v>44085</v>
       </c>
       <c r="F286" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>14</v>
@@ -30995,7 +31019,7 @@
         <v>44085</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>14</v>
@@ -31018,7 +31042,7 @@
         <v>44085</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>14</v>
@@ -31041,7 +31065,7 @@
         <v>44085</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>14</v>
@@ -31087,7 +31111,7 @@
         <v>44085</v>
       </c>
       <c r="F291" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>14</v>
@@ -31110,7 +31134,7 @@
         <v>44085</v>
       </c>
       <c r="F292" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>14</v>
@@ -31133,7 +31157,7 @@
         <v>44085</v>
       </c>
       <c r="F293" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>14</v>
@@ -31225,7 +31249,7 @@
         <v>44085</v>
       </c>
       <c r="F297" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>14</v>
@@ -31242,13 +31266,13 @@
         <v>12</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E298" s="11">
         <v>44086</v>
       </c>
       <c r="F298" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>14</v>
@@ -31271,7 +31295,7 @@
         <v>44086</v>
       </c>
       <c r="F299" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>14</v>
@@ -31294,7 +31318,7 @@
         <v>44086</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>14</v>
@@ -31363,7 +31387,7 @@
         <v>44086</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>14</v>
@@ -31432,7 +31456,7 @@
         <v>44087</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>14</v>
@@ -31478,7 +31502,7 @@
         <v>44086</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>9</v>
@@ -31501,7 +31525,7 @@
         <v>44087</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>9</v>
@@ -31524,7 +31548,7 @@
         <v>44087</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>9</v>
@@ -31547,7 +31571,7 @@
         <v>44087</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>9</v>
@@ -31639,7 +31663,7 @@
         <v>44088</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>9</v>
@@ -31708,7 +31732,7 @@
         <v>44089</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>9</v>
@@ -31731,7 +31755,7 @@
         <v>44089</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>14</v>
@@ -31800,7 +31824,7 @@
         <v>44089</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>14</v>
@@ -31915,7 +31939,7 @@
         <v>44089</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>14</v>
@@ -31961,7 +31985,7 @@
         <v>44089</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>14</v>
@@ -32122,7 +32146,7 @@
         <v>44090</v>
       </c>
       <c r="F336" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>14</v>
@@ -32168,7 +32192,7 @@
         <v>44090</v>
       </c>
       <c r="F338" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>9</v>
@@ -32191,7 +32215,7 @@
         <v>44090</v>
       </c>
       <c r="F339" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>9</v>
@@ -32220,8 +32244,215 @@
         <v>9</v>
       </c>
     </row>
+    <row r="341" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A341" s="8">
+        <v>338</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F341" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A342" s="8">
+        <v>339</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F342" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A343" s="8">
+        <v>340</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" s="11">
+        <v>44090</v>
+      </c>
+      <c r="F343" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A344" s="8">
+        <v>341</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E344" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F344" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A345" s="8">
+        <v>342</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F345" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A346" s="8">
+        <v>343</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E346" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F346" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A347" s="8">
+        <v>344</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E347" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F347" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A348" s="8">
+        <v>345</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E348" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F348" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A349" s="8">
+        <v>346</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F340"/>
+  <autoFilter ref="A3:F348"/>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
@@ -32247,10 +32478,10 @@
   </sheetPr>
   <dimension ref="A1:IQ105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="GI1" activePane="topRight" state="frozen"/>
-      <selection activeCell="F337" sqref="F337"/>
-      <selection pane="topRight" activeCell="F337" sqref="F337"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="GB1" activePane="topRight" state="frozen"/>
+      <selection activeCell="F362" sqref="F362"/>
+      <selection pane="topRight" activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -32313,7 +32544,8 @@
     <col min="201" max="202" width="4.875" style="21" customWidth="1"/>
     <col min="203" max="205" width="4.375" style="21" bestFit="1" customWidth="1"/>
     <col min="206" max="206" width="4.5" style="21" customWidth="1"/>
-    <col min="207" max="251" width="2.625" style="21" customWidth="1"/>
+    <col min="207" max="207" width="4.625" style="21" customWidth="1"/>
+    <col min="208" max="251" width="2.625" style="21" customWidth="1"/>
     <col min="252" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -32337,7 +32569,7 @@
       <c r="DA2" s="14"/>
       <c r="DB2" s="14"/>
       <c r="DN2" s="15">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="DO2" s="15"/>
       <c r="DP2" s="15"/>
@@ -33700,145 +33932,145 @@
         <v>69</v>
       </c>
       <c r="GW4" s="26">
+        <v>80</v>
+      </c>
+      <c r="GX4" s="26">
         <v>82</v>
       </c>
-      <c r="GX4" s="26">
-        <v>83</v>
-      </c>
       <c r="GY4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="GZ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HA4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HB4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HC4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HD4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HE4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HF4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HG4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HH4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HI4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HJ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HK4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HL4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HM4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HN4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HO4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HP4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HQ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HR4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HS4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HT4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HU4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HV4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HW4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HX4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HY4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HZ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IA4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IB4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IC4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ID4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IE4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IF4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IG4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IH4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="II4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IJ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IK4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IL4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IM4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IN4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IO4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IP4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IQ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:251" ht="24" x14ac:dyDescent="0.4">
@@ -34451,7 +34683,9 @@
       <c r="GX5" s="26">
         <v>11</v>
       </c>
-      <c r="GY5" s="26"/>
+      <c r="GY5" s="26">
+        <v>13</v>
+      </c>
       <c r="GZ5" s="26"/>
       <c r="HA5" s="26"/>
       <c r="HB5" s="26"/>
@@ -35107,7 +35341,9 @@
       <c r="GX6" s="26">
         <v>22</v>
       </c>
-      <c r="GY6" s="26"/>
+      <c r="GY6" s="26">
+        <v>21</v>
+      </c>
       <c r="GZ6" s="26"/>
       <c r="HA6" s="26"/>
       <c r="HB6" s="26"/>
@@ -35763,7 +35999,9 @@
       <c r="GX7" s="26">
         <v>13</v>
       </c>
-      <c r="GY7" s="26"/>
+      <c r="GY7" s="26">
+        <v>14</v>
+      </c>
       <c r="GZ7" s="26"/>
       <c r="HA7" s="26"/>
       <c r="HB7" s="26"/>
@@ -36414,12 +36652,14 @@
         <v>28</v>
       </c>
       <c r="GW8" s="26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="GX8" s="26">
-        <v>37</v>
-      </c>
-      <c r="GY8" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="GY8" s="26">
+        <v>33</v>
+      </c>
       <c r="GZ8" s="26"/>
       <c r="HA8" s="26"/>
       <c r="HB8" s="26"/>
@@ -37072,142 +37312,142 @@
         <v>332</v>
       </c>
       <c r="GX9" s="26">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="GY9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="GZ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HA9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HB9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HC9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HD9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HE9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HF9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HG9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HH9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HI9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HJ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HK9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HL9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HM9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HN9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HO9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HP9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HQ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HR9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HS9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HT9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HU9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HV9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HW9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HX9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HY9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HZ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IA9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IB9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IC9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="ID9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IE9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IF9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IG9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IH9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="II9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IJ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IK9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IL9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IM9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IN9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IO9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IP9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IQ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:251" ht="24" x14ac:dyDescent="0.4">
@@ -37215,7 +37455,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="28"/>
@@ -37823,10 +38063,10 @@
         <v>19</v>
       </c>
       <c r="GX10" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="GY10" s="26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="GZ10" s="26">
         <v>0</v>
@@ -37966,7 +38206,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="26">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="28"/>
@@ -38571,13 +38811,13 @@
         <v>12</v>
       </c>
       <c r="GW11" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="GX11" s="26">
         <v>4</v>
       </c>
       <c r="GY11" s="26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="GZ11" s="26">
         <v>0</v>
@@ -40821,7 +41061,9 @@
       <c r="GX14" s="26">
         <v>0</v>
       </c>
-      <c r="GY14" s="26"/>
+      <c r="GY14" s="26">
+        <v>0</v>
+      </c>
       <c r="GZ14" s="26"/>
       <c r="HA14" s="26"/>
       <c r="HB14" s="26"/>
@@ -41477,7 +41719,9 @@
       <c r="GX15" s="26">
         <v>0</v>
       </c>
-      <c r="GY15" s="26"/>
+      <c r="GY15" s="26">
+        <v>0</v>
+      </c>
       <c r="GZ15" s="26"/>
       <c r="HA15" s="26"/>
       <c r="HB15" s="26"/>
@@ -42133,7 +42377,9 @@
       <c r="GX16" s="26">
         <v>0</v>
       </c>
-      <c r="GY16" s="26"/>
+      <c r="GY16" s="26">
+        <v>0</v>
+      </c>
       <c r="GZ16" s="26"/>
       <c r="HA16" s="26"/>
       <c r="HB16" s="26"/>
@@ -42789,7 +43035,9 @@
       <c r="GX17" s="26">
         <v>0</v>
       </c>
-      <c r="GY17" s="26"/>
+      <c r="GY17" s="26">
+        <v>0</v>
+      </c>
       <c r="GZ17" s="26"/>
       <c r="HA17" s="26"/>
       <c r="HB17" s="26"/>
@@ -45992,8 +46240,8 @@
   </sheetPr>
   <dimension ref="A1:EQ258"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F337" sqref="F337"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L13" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -46046,7 +46294,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="Q2" s="42">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="R2" s="42"/>
     </row>
@@ -50169,16 +50417,16 @@
         <v>44090</v>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
       <c r="D244">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E244">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.4">
@@ -50186,16 +50434,16 @@
         <v>44091</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C245">
         <v>0</v>
       </c>
       <c r="D245">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E245">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
@@ -50209,10 +50457,10 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E246">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.4">
@@ -50226,10 +50474,10 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E247">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
@@ -50243,10 +50491,10 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E248">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
@@ -50260,10 +50508,10 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E249">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
@@ -50277,10 +50525,10 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E250">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.4">
@@ -50294,10 +50542,10 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E251">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
@@ -50311,10 +50559,10 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E252">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.4">
@@ -50328,10 +50576,10 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E253">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
@@ -50345,10 +50593,10 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E254">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
@@ -50362,10 +50610,10 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E255">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.4">
@@ -50379,10 +50627,10 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E256">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.4">
@@ -50396,10 +50644,10 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E257">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
@@ -50413,10 +50661,10 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E258">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -50438,8 +50686,8 @@
   </sheetPr>
   <dimension ref="A1:EQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F337" sqref="F337"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -50471,7 +50719,7 @@
     </row>
     <row r="2" spans="1:147" x14ac:dyDescent="0.4">
       <c r="H2" s="44">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
@@ -50508,20 +50756,20 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="49">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E6" s="49">
         <v>8</v>
       </c>
       <c r="F6" s="49">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P6" s="45" t="s">
         <v>63</v>
       </c>
       <c r="Q6" s="46"/>
       <c r="R6" s="50">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50532,13 +50780,13 @@
         <v>65</v>
       </c>
       <c r="D7" s="49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="49">
         <v>0</v>
       </c>
       <c r="F7" s="49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="51" t="s">
         <v>64</v>
@@ -50547,7 +50795,7 @@
         <v>65</v>
       </c>
       <c r="R7" s="50">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50556,20 +50804,20 @@
         <v>66</v>
       </c>
       <c r="D8" s="49">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" s="49">
         <v>0</v>
       </c>
       <c r="F8" s="49">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P8" s="53"/>
       <c r="Q8" s="52" t="s">
         <v>66</v>
       </c>
       <c r="R8" s="50">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50578,20 +50826,20 @@
         <v>67</v>
       </c>
       <c r="D9" s="49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="49">
         <v>0</v>
       </c>
       <c r="F9" s="49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="53"/>
       <c r="Q9" s="54" t="s">
         <v>67</v>
       </c>
       <c r="R9" s="50">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50600,20 +50848,20 @@
         <v>68</v>
       </c>
       <c r="D10" s="49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E10" s="49">
         <v>0</v>
       </c>
       <c r="F10" s="49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="52" t="s">
         <v>68</v>
       </c>
       <c r="R10" s="50">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50622,20 +50870,20 @@
         <v>69</v>
       </c>
       <c r="D11" s="49">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E11" s="49">
         <v>8</v>
       </c>
       <c r="F11" s="49">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="54" t="s">
         <v>69</v>
       </c>
       <c r="R11" s="50">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50701,7 +50949,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="49">
         <v>4</v>
@@ -50716,7 +50964,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="49">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N21" s="54" t="s">
         <v>75</v>
@@ -50728,7 +50976,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N22" s="54" t="s">
         <v>76</v>
@@ -50788,10 +51036,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="49">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N27" s="64">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50812,7 +51060,7 @@
         <v>85</v>
       </c>
       <c r="D29" s="49">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="N29" t="s">
         <v>86</v>
